--- a/CSA_parameters.xlsx
+++ b/CSA_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="8" r:id="rId1"/>
@@ -167,9 +167,6 @@
     <t>Index number(s) of selected IDSL.IPA peaks</t>
   </si>
   <si>
-    <t>Intensity height threshold for chromatographic peaks</t>
-  </si>
-  <si>
     <t>Pearson’s correlation coefficient threshold</t>
   </si>
   <si>
@@ -781,8 +778,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>"YES" OR "NO", When "YES", fill out the `</t>
+    <t>Number of points to smooth individual chromatographic peaks using cubic spline method to increase number of data points for the Pearson's correlation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annotate </t>
     </r>
     <r>
       <rPr>
@@ -792,24 +792,101 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>DIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>` tab</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of points to smooth individual chromatographic peaks using cubic spline method to increase number of data points for the Pearson's correlation</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Annotate </t>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files using a reference library (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>HRMS data location</t>
+  </si>
+  <si>
+    <t>Minimum cutoff (%) for relative intensity ( = peak intensity/basepeak intensity) to select spectra marker peaks above this cutoff</t>
+  </si>
+  <si>
+    <t>FSDB_name</t>
+  </si>
+  <si>
+    <t>≥ 2</t>
+  </si>
+  <si>
+    <t>≥ 0.001</t>
+  </si>
+  <si>
+    <t>DDA0016</t>
+  </si>
+  <si>
+    <t>DDA0017</t>
+  </si>
+  <si>
+    <t>DDA0018</t>
+  </si>
+  <si>
+    <t>DDA0019</t>
+  </si>
+  <si>
+    <t>0.5-1 (Default = 0.85)</t>
+  </si>
+  <si>
+    <t>0-100 (Default = 10%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Li et. al., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -819,6 +896,84 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Nature Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li et. al., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> from reference library files (only </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>.msp</t>
     </r>
     <r>
@@ -828,88 +983,138 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> files using a reference library (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>HRMS data location</t>
-  </si>
-  <si>
-    <t>Minimum cutoff (%) for relative intensity ( = peak intensity/basepeak intensity) to select spectra marker peaks above this cutoff</t>
-  </si>
-  <si>
-    <t>FSDB_name</t>
-  </si>
-  <si>
-    <t>≥ 2</t>
-  </si>
-  <si>
-    <t>≥ 0.001</t>
-  </si>
-  <si>
-    <t>DDA0016</t>
-  </si>
-  <si>
-    <t>DDA0017</t>
-  </si>
-  <si>
-    <t>DDA0018</t>
-  </si>
-  <si>
-    <t>DDA0019</t>
-  </si>
-  <si>
-    <t>0.5-1 (Default = 0.85)</t>
-  </si>
-  <si>
-    <t>0-100 (Default = 10%)</t>
-  </si>
-  <si>
-    <r>
-      <t>Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Li et. al., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> files) to annotate untargeted </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files</t>
+    </r>
+  </si>
+  <si>
+    <t>CSA0001</t>
+  </si>
+  <si>
+    <t>CSA0002</t>
+  </si>
+  <si>
+    <t>CSA0003</t>
+  </si>
+  <si>
+    <t>CSA0004</t>
+  </si>
+  <si>
+    <t>CSA0005</t>
+  </si>
+  <si>
+    <t>CSA0006</t>
+  </si>
+  <si>
+    <t>CSA0007</t>
+  </si>
+  <si>
+    <t>CSA0008</t>
+  </si>
+  <si>
+    <t>Address to save the IDSL.CSA results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rank spectra hits on an aligned peak table in case </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files were generated using IDSL.CSA and indexed aligned table is available from IDSL.IPA pipeline.</t>
+    </r>
+  </si>
+  <si>
+    <t>ms_level</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <r>
+      <t>Mass accuracy (Da) for "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IonFiltering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" or "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DDAspectraIntegration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Integrate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -917,81 +1122,112 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li et. al., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, or select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generate a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from reference library files (only </t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>the most abundant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of DDA spectra (MS2) of the same precursor across MS1 chromatographic peaks (mass spectra). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IonFiltering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can only be applied when DDA scan count ≥ 3; however, the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MostIntenseDDAspectra"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method is still used when DDA scan counts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.</t>
+    </r>
+  </si>
+  <si>
+    <t>CSA0010</t>
+  </si>
+  <si>
+    <t>CSA0012</t>
+  </si>
+  <si>
+    <t>CSA0013</t>
+  </si>
+  <si>
+    <t>CSA0015</t>
+  </si>
+  <si>
+    <t>CSA0016</t>
+  </si>
+  <si>
+    <t>CSA0019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of the reference </t>
     </r>
     <r>
       <rPr>
@@ -1010,351 +1246,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> files) to annotate untargeted </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files</t>
-    </r>
-  </si>
-  <si>
-    <t>CSA0001</t>
-  </si>
-  <si>
-    <t>CSA0002</t>
-  </si>
-  <si>
-    <t>CSA0003</t>
-  </si>
-  <si>
-    <t>CSA0004</t>
-  </si>
-  <si>
-    <t>CSA0005</t>
-  </si>
-  <si>
-    <t>CSA0006</t>
-  </si>
-  <si>
-    <t>CSA0007</t>
-  </si>
-  <si>
-    <t>CSA0008</t>
-  </si>
-  <si>
-    <t>Address to save the IDSL.CSA results</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rank spectra hits on an aligned peak table in case </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files were generated using IDSL.CSA and indexed aligned table is available from IDSL.IPA pipeline.</t>
-    </r>
-  </si>
-  <si>
-    <t>ms_level</t>
-  </si>
-  <si>
-    <t>SMILES</t>
-  </si>
-  <si>
-    <r>
-      <t>Mass accuracy (Da) for "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IonFiltering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" or "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DDAspectraIntegration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Integrate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>filter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, or select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>the most abundant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> of DDA spectra (MS2) of the same precursor across MS1 chromatographic peaks (mass spectra). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IonFiltering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> can only be applied when DDA scan count ≥ 3; however, the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MostIntenseDDAspectra"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> method is still used when DDA scan counts </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.</t>
-    </r>
-  </si>
-  <si>
-    <t>CSA0010</t>
-  </si>
-  <si>
-    <t>CSA0012</t>
-  </si>
-  <si>
-    <t>CSA0013</t>
-  </si>
-  <si>
-    <t>CSA0015</t>
-  </si>
-  <si>
-    <t>CSA0016</t>
-  </si>
-  <si>
-    <t>CSA0019</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name of the reference </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> files to process</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Create </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files for Data-Independent Acquisition (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) methods such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS^E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, and All-Ion Fragmentation (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AIF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) analyses</t>
     </r>
   </si>
   <si>
@@ -2073,125 +1965,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ignore precursor m/z. We suggest using a mass error for precursors in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DDA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS^E/SWATH-MS/AIF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> analyses and skipping this parameter for only one MS level DIA analyses such as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>EI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>in-source fragmentation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>exact_mass</t>
   </si>
   <si>
@@ -4118,6 +3891,292 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Intensity height threshold for chromatographic peaks of MS level 2 EIC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files for Data-Independent Acquisition (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) methods such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWATH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS^E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, and All-Ion Fragmentation (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) analyses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"YES" OR "NO", When "YES", fill out the `</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">` tab. IDSL.CSA automatically detect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SWATH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to ignore precursor m/z. We suggest using a mass error for precursors in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MS^E/SWATH-MS/AIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> analyses and skipping this parameter for only one MS level analyses such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>in-source fragmentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -4613,9 +4672,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5141,6 +5197,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5438,7 +5497,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5468,144 +5527,144 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="164" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="164"/>
+      <c r="B3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="164"/>
+      <c r="B4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="164"/>
+      <c r="B5" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
-      <c r="B3" s="72" t="s">
+      <c r="C5" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="164"/>
+      <c r="B6" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165"/>
-      <c r="B4" s="72" t="s">
+      <c r="C6" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="164"/>
+      <c r="B7" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="72" t="s">
+      <c r="C7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="165"/>
-      <c r="B7" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="74" t="str">
+      <c r="C8" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="73" t="str">
         <f>CONCATENATE(FSDB!D4, "/", FSDB!D5, ".Rdata")</f>
         <v>/FSDB//FSDB_name.Rdata</v>
       </c>
-      <c r="E8" s="75" t="s">
-        <v>135</v>
+      <c r="E8" s="74" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>195</v>
       </c>
       <c r="D9" s="9" t="str">
         <f>CONCATENATE(CSA!D12, "/CSA_MSP")</f>
         <v>/path/to/folder//CSA_MSP</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>340</v>
+      <c r="E9" s="75" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="168"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="78" t="str">
+        <v>205</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="77" t="str">
         <f>CSA!D12</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E10" s="77" t="str">
+      <c r="E10" s="76" t="str">
         <f>E9</f>
         <v>Do not fill when any of PARAM0001-PARAM0003 are selected "YES"</v>
       </c>
@@ -5651,16 +5710,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="37.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5670,250 +5729,250 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="88" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" s="153"/>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="143" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="143" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" s="154"/>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="174"/>
+      <c r="B4" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="C4" s="143" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="89" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2" s="154"/>
-    </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
-      <c r="B3" s="143" t="s">
+      <c r="E4" s="143" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="154"/>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="175"/>
+      <c r="B5" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="144" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="144" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="155"/>
-    </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175"/>
-      <c r="B4" s="143" t="s">
+      <c r="C5" s="90" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="89">
+        <v>1</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="155"/>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="176" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="143" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="144" t="s">
-        <v>386</v>
-      </c>
-      <c r="F4" s="155"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
-      <c r="B5" s="90" t="s">
+      <c r="C6" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="156"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177"/>
+      <c r="B7" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="90">
-        <v>1</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="156"/>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="70" t="s">
+      <c r="C7" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" s="156"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177"/>
+      <c r="B8" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="157"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="70" t="s">
+      <c r="C8" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8" s="157"/>
+    </row>
+    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="177"/>
+      <c r="B9" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F7" s="157"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8" s="158"/>
-    </row>
-    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="158"/>
+        <v>131</v>
+      </c>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>229</v>
+      <c r="A10" s="177"/>
+      <c r="B10" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" s="158"/>
+        <v>370</v>
+      </c>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>45</v>
+      <c r="A11" s="177"/>
+      <c r="B11" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="159"/>
+      <c r="F11" s="158"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="51" t="s">
-        <v>307</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>422</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="160"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="159"/>
     </row>
     <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
-        <v>325</v>
+      <c r="A13" s="179" t="s">
+        <v>321</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="142" t="s">
-        <v>370</v>
-      </c>
-      <c r="F13" s="182" t="s">
-        <v>315</v>
+        <v>277</v>
+      </c>
+      <c r="E13" s="141" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="181" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D14" s="18">
         <v>0.01</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="182"/>
+        <v>211</v>
+      </c>
+      <c r="F14" s="181"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="18">
         <v>5</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="182"/>
+        <v>163</v>
+      </c>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>7</v>
@@ -5924,401 +5983,401 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="67" t="s">
-        <v>194</v>
+      <c r="A17" s="179"/>
+      <c r="B17" s="66" t="s">
+        <v>192</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="67" t="s">
-        <v>212</v>
+      <c r="A18" s="179"/>
+      <c r="B18" s="66" t="s">
+        <v>209</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="67">
+        <v>291</v>
+      </c>
+      <c r="D18" s="66">
         <v>250</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="181"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="39" t="s">
-        <v>213</v>
+      <c r="A19" s="179"/>
+      <c r="B19" s="38" t="s">
+        <v>210</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="39">
+        <v>158</v>
+      </c>
+      <c r="D19" s="38">
         <v>2000</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F19" s="182"/>
+        <v>245</v>
+      </c>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="39" t="s">
-        <v>195</v>
+      <c r="A20" s="179"/>
+      <c r="B20" s="38" t="s">
+        <v>193</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="39">
+        <v>151</v>
+      </c>
+      <c r="D20" s="38">
         <v>100</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="182"/>
+        <v>150</v>
+      </c>
+      <c r="F20" s="181"/>
     </row>
     <row r="21" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="180"/>
-      <c r="B21" s="39" t="s">
-        <v>221</v>
+      <c r="A21" s="179"/>
+      <c r="B21" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="67">
+        <v>318</v>
+      </c>
+      <c r="D21" s="66">
         <v>0</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="182"/>
+      <c r="F21" s="181"/>
     </row>
     <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="180"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="66">
+        <v>2</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F22" s="181"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="180"/>
+      <c r="B23" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="68">
+        <v>0.99</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="182"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>384</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="127" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="186" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="184"/>
+      <c r="B25" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="D22" s="67">
-        <v>2</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F22" s="182"/>
-    </row>
-    <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181"/>
-      <c r="B23" s="69" t="s">
+      <c r="C25" s="128" t="s">
+        <v>360</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="187"/>
+    </row>
+    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="184"/>
+      <c r="B26" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="69">
-        <v>0.99</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="183"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="184" t="s">
-        <v>368</v>
-      </c>
-      <c r="B24" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="128" t="s">
-        <v>388</v>
-      </c>
-      <c r="D24" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="128" t="s">
-        <v>389</v>
-      </c>
-      <c r="F24" s="187" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="129" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="188"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
-      <c r="B26" s="130" t="s">
-        <v>226</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="130">
+      <c r="C26" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="D26" s="129">
         <f>D17</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E26" s="129" t="s">
-        <v>390</v>
-      </c>
-      <c r="F26" s="188"/>
+      <c r="E26" s="128" t="s">
+        <v>386</v>
+      </c>
+      <c r="F26" s="187"/>
     </row>
     <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
-      <c r="B27" s="130" t="s">
+      <c r="A27" s="184"/>
+      <c r="B27" s="129" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="129">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="128" t="s">
+        <v>387</v>
+      </c>
+      <c r="F27" s="187"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="184"/>
+      <c r="B28" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="129" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="130">
+      <c r="C28" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" s="129">
+        <v>10</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>424</v>
+      </c>
+      <c r="F28" s="187"/>
+    </row>
+    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="184"/>
+      <c r="B29" s="129" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="128" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="187"/>
+    </row>
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="185"/>
+      <c r="B30" s="124" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="124">
+        <v>0.9</v>
+      </c>
+      <c r="E30" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="188"/>
+    </row>
+    <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="80">
         <v>0.05</v>
       </c>
-      <c r="E27" s="129" t="s">
-        <v>391</v>
-      </c>
-      <c r="F27" s="188"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="185"/>
-      <c r="B28" s="130" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="129" t="s">
-        <v>349</v>
-      </c>
-      <c r="D28" s="130">
-        <v>10</v>
-      </c>
-      <c r="E28" s="129" t="s">
-        <v>428</v>
-      </c>
-      <c r="F28" s="188"/>
-    </row>
-    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="185"/>
-      <c r="B29" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="D29" s="123" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="188"/>
-    </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
-      <c r="B30" s="125" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="126" t="s">
+      <c r="E31" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="170" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="168"/>
+      <c r="B32" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="82">
+        <v>5</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="171"/>
+    </row>
+    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="168"/>
+      <c r="B33" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33" s="84">
+        <v>3</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="171"/>
+    </row>
+    <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="168"/>
+      <c r="B34" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="125">
-        <v>0.9</v>
-      </c>
-      <c r="E30" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="189"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="169" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>343</v>
-      </c>
-      <c r="D31" s="81">
-        <v>0.05</v>
-      </c>
-      <c r="E31" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="171" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="58" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="169"/>
-      <c r="B32" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>330</v>
-      </c>
-      <c r="D32" s="83">
-        <v>5</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="172"/>
-    </row>
-    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="169"/>
-      <c r="B33" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="D33" s="85">
-        <v>3</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="172"/>
-    </row>
-    <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="169"/>
-      <c r="B34" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D34" s="85">
+      <c r="C34" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="84">
         <v>0.1</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="172"/>
+      <c r="F34" s="171"/>
     </row>
     <row r="35" spans="1:6" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="169"/>
-      <c r="B35" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="D35" s="85">
+      <c r="A35" s="168"/>
+      <c r="B35" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" s="84">
         <v>0.5</v>
       </c>
-      <c r="E35" s="86" t="s">
+      <c r="E35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="172"/>
+      <c r="F35" s="171"/>
     </row>
     <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="169"/>
-      <c r="B36" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" s="96" t="s">
-        <v>367</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="92" t="s">
+      <c r="A36" s="168"/>
+      <c r="B36" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="172"/>
+      <c r="F36" s="171"/>
     </row>
     <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="169"/>
-      <c r="B37" s="85" t="s">
-        <v>321</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>244</v>
-      </c>
-      <c r="D37" s="85">
+      <c r="A37" s="168"/>
+      <c r="B37" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="84">
         <f>D17</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E37" s="92" t="s">
+      <c r="E37" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="172"/>
+      <c r="F37" s="171"/>
     </row>
     <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="169"/>
-      <c r="B38" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D38" s="85" t="b">
+      <c r="A38" s="168"/>
+      <c r="B38" s="84" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" s="84" t="b">
         <v>1</v>
       </c>
-      <c r="E38" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="172"/>
+      <c r="E38" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="171"/>
     </row>
     <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="169"/>
-      <c r="B39" s="97" t="s">
-        <v>365</v>
-      </c>
-      <c r="C39" s="98" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="97">
+      <c r="A39" s="168"/>
+      <c r="B39" s="96" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="96">
         <v>0.6</v>
       </c>
-      <c r="E39" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="172"/>
+      <c r="E39" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="171"/>
     </row>
     <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="170"/>
-      <c r="B40" s="94" t="s">
-        <v>366</v>
-      </c>
-      <c r="C40" s="95" t="s">
-        <v>317</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>240</v>
-      </c>
-      <c r="E40" s="87" t="s">
-        <v>331</v>
-      </c>
-      <c r="F40" s="173"/>
+      <c r="A40" s="169"/>
+      <c r="B40" s="93" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="86" t="s">
+        <v>327</v>
+      </c>
+      <c r="F40" s="172"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6346,23 +6405,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="76" style="58" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="78" style="46" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="37" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="76" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="78" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6372,435 +6431,435 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="F1" s="106" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="89" t="s">
-        <v>413</v>
-      </c>
-      <c r="F2" s="139"/>
-    </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
-      <c r="B3" s="137" t="s">
+      <c r="E2" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="F2" s="138"/>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="137" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="138" t="s">
-        <v>414</v>
-      </c>
-      <c r="F3" s="145"/>
-    </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176"/>
-      <c r="B4" s="90" t="s">
+      <c r="E3" s="137" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" s="144"/>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="175"/>
+      <c r="B4" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="89">
         <f>CSA!D5</f>
         <v>1</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="140"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="70" t="str">
+      <c r="C5" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="69" t="str">
         <f>CSA!D6</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="112"/>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="80" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="111"/>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="177"/>
+      <c r="B6" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="45" t="str">
+      <c r="C6" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" s="112"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="45" t="str">
+        <v>413</v>
+      </c>
+      <c r="F6" s="111"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177"/>
+      <c r="B7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="44" t="str">
         <f>CSA!D8</f>
         <v>All</v>
       </c>
-      <c r="E7" s="102" t="s">
-        <v>392</v>
-      </c>
-      <c r="F7" s="113"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="43" t="s">
+      <c r="E7" s="101" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="112"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177"/>
+      <c r="B8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="45" t="str">
+      <c r="C8" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
         <v>/peaklists</v>
       </c>
-      <c r="E8" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="113"/>
+      <c r="E8" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="177"/>
+      <c r="B9" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="45" t="str">
+      <c r="C9" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9" s="114"/>
+      <c r="E9" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="113"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="114"/>
+      <c r="E10" s="102" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="103" t="s">
+      <c r="D11" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="113"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="178"/>
+      <c r="B12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="99" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="51" t="str">
+      <c r="C12" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E12" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="115"/>
+      <c r="E12" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="190" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="131" t="s">
+      <c r="A13" s="189" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="133" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="134" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="164" t="s">
-        <v>425</v>
+      <c r="D13" s="132" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="163" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="190"/>
-      <c r="B14" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="55" t="s">
+      <c r="A14" s="189"/>
+      <c r="B14" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>0.01</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="192" t="s">
-        <v>293</v>
+      <c r="F14" s="191" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="190"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="189"/>
+      <c r="B15" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="192"/>
+    </row>
+    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="189"/>
+      <c r="B16" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="193"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="190"/>
-      <c r="B16" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="54">
+      <c r="C16" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="53">
         <v>0.01</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="193"/>
+      <c r="F16" s="192"/>
     </row>
     <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="190"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="53">
+        <v>10</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="192"/>
+    </row>
+    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="189"/>
+      <c r="B18" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="53">
+        <v>10</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="192"/>
+    </row>
+    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="190"/>
+      <c r="B19" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="54">
-        <v>10</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="193"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="190"/>
-      <c r="B18" s="54" t="s">
+      <c r="C19" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0.85</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="193"/>
+    </row>
+    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="54">
-        <v>10</v>
-      </c>
-      <c r="E18" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="193"/>
-    </row>
-    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
-      <c r="B19" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="C20" s="127" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="127" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="186" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="184"/>
+      <c r="B21" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="128" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="56">
-        <v>0.85</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="194"/>
-    </row>
-    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184" t="s">
-        <v>368</v>
-      </c>
-      <c r="B20" s="127" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="128" t="s">
-        <v>394</v>
-      </c>
-      <c r="D20" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="128" t="s">
-        <v>395</v>
-      </c>
-      <c r="F20" s="187" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
-      <c r="B21" s="130" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="129" t="s">
+      <c r="E21" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="188"/>
+      <c r="F21" s="187"/>
     </row>
     <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="185"/>
-      <c r="B22" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="129" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="130">
+      <c r="A22" s="184"/>
+      <c r="B22" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="D22" s="129">
         <f>D14</f>
         <v>0.01</v>
       </c>
-      <c r="E22" s="129" t="s">
-        <v>396</v>
-      </c>
-      <c r="F22" s="188"/>
+      <c r="E22" s="128" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="187"/>
     </row>
     <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
-      <c r="B23" s="130" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23" s="129" t="s">
-        <v>336</v>
-      </c>
-      <c r="D23" s="123">
+      <c r="A23" s="184"/>
+      <c r="B23" s="129" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="122">
         <v>0.05</v>
       </c>
-      <c r="E23" s="124" t="s">
-        <v>397</v>
-      </c>
-      <c r="F23" s="188"/>
+      <c r="E23" s="123" t="s">
+        <v>393</v>
+      </c>
+      <c r="F23" s="187"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="185"/>
-      <c r="B24" s="130" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="130">
+      <c r="A24" s="184"/>
+      <c r="B24" s="129" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" s="129">
         <v>10</v>
       </c>
-      <c r="E24" s="129" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="188"/>
+      <c r="E24" s="128" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" s="187"/>
     </row>
     <row r="25" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="130" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="D25" s="123" t="b">
+      <c r="A25" s="184"/>
+      <c r="B25" s="129" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="E25" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="188"/>
+      <c r="E25" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="187"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
-      <c r="B26" s="125" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="126" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="125">
+      <c r="A26" s="185"/>
+      <c r="B26" s="124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" s="125" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="124">
         <v>0.9</v>
       </c>
-      <c r="E26" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="189"/>
+      <c r="E26" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="188"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6826,22 +6885,22 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13:E13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="46" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="78" style="46" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="46" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="37" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="78" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="42" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6851,243 +6910,243 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="107" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
-        <v>378</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="F1" s="106" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="88" t="s">
+      <c r="C2" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="89" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="139"/>
-    </row>
-    <row r="3" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175"/>
-      <c r="B3" s="137" t="s">
+      <c r="E2" s="88" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="138"/>
+    </row>
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="174"/>
+      <c r="B3" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="138" t="s">
-        <v>363</v>
-      </c>
-      <c r="D3" s="137" t="s">
+      <c r="C3" s="137" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="138" t="s">
-        <v>412</v>
-      </c>
-      <c r="F3" s="145"/>
-    </row>
-    <row r="4" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="176"/>
-      <c r="B4" s="90" t="s">
+      <c r="E3" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="144"/>
+    </row>
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="175"/>
+      <c r="B4" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="89">
         <f>DDA!D4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="140"/>
-    </row>
-    <row r="5" spans="1:6" s="42" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+      <c r="F4" s="139"/>
+    </row>
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" s="70" t="str">
+      <c r="C5" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="69" t="str">
         <f>CSA!D6</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="112"/>
-    </row>
-    <row r="6" spans="1:6" s="42" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
-      <c r="B6" s="80" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="111"/>
+    </row>
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="177"/>
+      <c r="B6" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>362</v>
-      </c>
-      <c r="D6" s="45" t="str">
+      <c r="C6" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" s="112"/>
-    </row>
-    <row r="7" spans="1:6" s="42" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
-      <c r="B7" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="111"/>
+    </row>
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="177"/>
+      <c r="B7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="D7" s="45" t="str">
+      <c r="C7" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="44" t="str">
         <f>CSA!D8</f>
         <v>All</v>
       </c>
-      <c r="E7" s="102" t="s">
-        <v>398</v>
-      </c>
-      <c r="F7" s="113"/>
-    </row>
-    <row r="8" spans="1:6" s="42" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="178"/>
-      <c r="B8" s="43" t="s">
+      <c r="E7" s="101" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="112"/>
+    </row>
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="177"/>
+      <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>356</v>
-      </c>
-      <c r="D8" s="45" t="str">
+      <c r="C8" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
         <v>/peaklists</v>
       </c>
-      <c r="E8" s="102" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="113"/>
+      <c r="E8" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="178"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="177"/>
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="45" t="str">
+      <c r="C9" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
-      <c r="E9" s="102" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9" s="161"/>
+      <c r="E9" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="160"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="178"/>
-      <c r="B10" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="103" t="s">
-        <v>399</v>
-      </c>
-      <c r="F10" s="161"/>
+      <c r="E10" s="102" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="160"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="43" t="s">
-        <v>353</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="103" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="42" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="161"/>
+      <c r="F11" s="160"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="C12" s="99" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" s="51" t="str">
+      <c r="A12" s="178"/>
+      <c r="B12" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
         <v>/path/to/folder/</v>
       </c>
-      <c r="E12" s="104" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="162"/>
+      <c r="E12" s="103" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="161"/>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="133" t="s">
+      <c r="A13" s="179" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="133" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="163" t="s">
+      <c r="D13" s="132" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>315</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="179"/>
+      <c r="B14" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="141">
+      <c r="D14" s="140">
         <v>1000</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="195" t="s">
-        <v>424</v>
+      <c r="F14" s="194" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -7098,220 +7157,220 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="39" t="s">
-        <v>310</v>
+      <c r="A16" s="179"/>
+      <c r="B16" s="38" t="s">
+        <v>306</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="179"/>
+      <c r="B17" s="66" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="66">
         <v>0.01</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="179"/>
+      <c r="B18" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="67">
+        <v>291</v>
+      </c>
+      <c r="D18" s="66">
         <v>50</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="181"/>
     </row>
     <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="39" t="s">
-        <v>150</v>
+      <c r="A19" s="179"/>
+      <c r="B19" s="38" t="s">
+        <v>149</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="39">
+        <v>158</v>
+      </c>
+      <c r="D19" s="38">
         <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="182"/>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="180"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="179"/>
+      <c r="B20" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="38">
+        <v>90</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="181"/>
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="180"/>
+      <c r="B21" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="39">
-        <v>90</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="182"/>
-    </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
-      <c r="B21" s="69" t="s">
-        <v>157</v>
-      </c>
       <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="182"/>
+    </row>
+    <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="127" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="127" t="s">
+        <v>396</v>
+      </c>
+      <c r="F22" s="186" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="184"/>
+      <c r="B23" s="129" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="69">
-        <v>0.95</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="183"/>
-    </row>
-    <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="184" t="s">
-        <v>368</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="128" t="s">
-        <v>403</v>
-      </c>
-      <c r="D22" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="128" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="187" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="185"/>
-      <c r="B23" s="130" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="129" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="129" t="s">
+      <c r="E23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="188"/>
+      <c r="F23" s="187"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="185"/>
-      <c r="B24" s="130" t="s">
-        <v>328</v>
-      </c>
-      <c r="C24" s="129" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" s="130">
+      <c r="A24" s="184"/>
+      <c r="B24" s="129" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="129">
         <f>D17</f>
         <v>0.01</v>
       </c>
-      <c r="E24" s="129" t="s">
-        <v>401</v>
-      </c>
-      <c r="F24" s="188"/>
+      <c r="E24" s="128" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24" s="187"/>
     </row>
     <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="130" t="s">
-        <v>359</v>
-      </c>
-      <c r="C25" s="129" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="123">
+      <c r="A25" s="184"/>
+      <c r="B25" s="129" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>333</v>
+      </c>
+      <c r="D25" s="122">
         <v>0.05</v>
       </c>
-      <c r="E25" s="124" t="s">
-        <v>402</v>
-      </c>
-      <c r="F25" s="188"/>
+      <c r="E25" s="123" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" s="187"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="185"/>
-      <c r="B26" s="130" t="s">
-        <v>380</v>
-      </c>
-      <c r="C26" s="129" t="s">
-        <v>348</v>
-      </c>
-      <c r="D26" s="130">
+      <c r="A26" s="184"/>
+      <c r="B26" s="129" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" s="128" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="129">
         <v>10</v>
       </c>
-      <c r="E26" s="129" t="s">
-        <v>426</v>
-      </c>
-      <c r="F26" s="188"/>
+      <c r="E26" s="128" t="s">
+        <v>422</v>
+      </c>
+      <c r="F26" s="187"/>
     </row>
     <row r="27" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="185"/>
-      <c r="B27" s="130" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="D27" s="123" t="b">
+      <c r="A27" s="184"/>
+      <c r="B27" s="129" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="128" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="122" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="188"/>
+      <c r="E27" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="187"/>
     </row>
     <row r="28" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
-      <c r="B28" s="125" t="s">
-        <v>382</v>
-      </c>
-      <c r="C28" s="126" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="125">
+      <c r="A28" s="185"/>
+      <c r="B28" s="124" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="124">
         <v>0.9</v>
       </c>
-      <c r="E28" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="189"/>
+      <c r="E28" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="188"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7368,129 +7427,129 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="151"/>
+    </row>
+    <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="166"/>
+      <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="150" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="152"/>
-    </row>
-    <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167"/>
-      <c r="B3" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="153" t="s">
-        <v>196</v>
+      <c r="C3" s="152" t="s">
+        <v>194</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="153" t="s">
-        <v>407</v>
+      <c r="E3" s="152" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="167"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="152" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="167"/>
+      <c r="B5" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="195" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="153" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="153" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="168"/>
-      <c r="B5" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="196" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="24">
         <f>DIA!D4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197"/>
-      <c r="B7" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="38">
+      <c r="A7" s="196"/>
+      <c r="B7" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="37">
         <f>SpectraSimilarity!D8</f>
         <v>1</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>139</v>
+      <c r="E7" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="197"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="196"/>
+      <c r="B8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <f>SpectraSimilarity!D12</f>
         <v>0.01</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198"/>
-      <c r="B9" s="146" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="147" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="148" t="b">
+      <c r="A9" s="197"/>
+      <c r="B9" s="145" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="147" t="b">
         <f>SpectraSimilarity!D13</f>
         <v>1</v>
       </c>
-      <c r="E9" s="147" t="s">
-        <v>47</v>
+      <c r="E9" s="146" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7508,9 +7567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="D3:E3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7536,336 +7595,337 @@
       <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="111" t="s">
-        <v>294</v>
+      <c r="F1" s="110" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="199" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="37">
+      <c r="A2" s="198" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="36">
         <f>FSDB!D6</f>
         <v>1</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="200" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="F3" s="163" t="s">
-        <v>425</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" s="199"/>
     </row>
     <row r="4" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="180"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="179"/>
+      <c r="B5" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="110" t="s">
+      <c r="C5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="109" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="118"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="179"/>
+      <c r="B6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="118"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="179"/>
+      <c r="B7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="F4" s="122" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="180"/>
-      <c r="B5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="110" t="s">
-        <v>287</v>
-      </c>
-      <c r="F5" s="119"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="180"/>
-      <c r="B6" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="F6" s="119"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
-      <c r="B7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="110" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="119"/>
+      <c r="E7" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="118"/>
     </row>
     <row r="8" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="180"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
-      <c r="E8" s="110" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="195" t="s">
-        <v>314</v>
+      <c r="E8" s="109" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="194" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="18">
         <v>20</v>
       </c>
-      <c r="E9" s="110" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="182"/>
+      <c r="E9" s="109" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="181"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D10" s="18">
         <v>50</v>
       </c>
-      <c r="E10" s="110" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="182"/>
+      <c r="E10" s="109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="181"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
-      <c r="E11" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="182"/>
+      <c r="E11" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="F11" s="181"/>
     </row>
     <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D12" s="18">
         <v>0.01</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="182"/>
+      <c r="F12" s="181"/>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="182"/>
+      <c r="E13" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="181"/>
     </row>
     <row r="14" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="182"/>
+      <c r="F14" s="181"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="182"/>
+      <c r="E15" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D16" s="18">
         <v>0.75</v>
       </c>
-      <c r="E16" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="182"/>
+      <c r="E16" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="182"/>
+      <c r="E17" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="180"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D18" s="18">
         <v>5</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="200"/>
+      <c r="F18" s="199"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="180"/>
-      <c r="B19" s="118" t="s">
-        <v>241</v>
+      <c r="A19" s="179"/>
+      <c r="B19" s="117" t="s">
+        <v>238</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D19" s="67">
+        <v>299</v>
+      </c>
+      <c r="D19" s="66">
         <v>0</v>
       </c>
-      <c r="E19" s="109" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="120"/>
+      <c r="E19" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="119"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="181"/>
-      <c r="B20" s="116" t="s">
-        <v>323</v>
+      <c r="A20" s="180"/>
+      <c r="B20" s="115" t="s">
+        <v>319</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="121"/>
+      <c r="E20" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="120"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="F8:F18"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2" location="standardizing-precursor-types"/>
-    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -7909,139 +7969,139 @@
     </row>
     <row r="2" spans="1:5" ht="68.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="201" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="136" t="s">
-        <v>357</v>
-      </c>
-      <c r="D2" s="30" t="str">
+        <v>49</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="135" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="29" t="str">
         <f>DIA!D9</f>
         <v>/peak_alignment</v>
       </c>
-      <c r="E2" s="29"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="30">
+      <c r="B3" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="29">
         <f>SpectraSimilarity!D2</f>
         <v>1</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="61">
+      <c r="B4" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="60">
         <v>250</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="61">
+      <c r="B5" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="60">
         <v>20</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="61" t="b">
+      <c r="B6" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="60" t="s">
-        <v>285</v>
+      <c r="E6" s="59" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="64">
+      <c r="B7" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="63">
         <v>0.05</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>166</v>
+      <c r="E7" s="62" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="202"/>
-      <c r="B8" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>264</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>284</v>
+      <c r="B8" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="202"/>
-      <c r="B9" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>282</v>
+      <c r="B9" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="203"/>
-      <c r="B10" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>283</v>
+      <c r="B10" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8069,26 +8129,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>138</v>
+      <c r="B2" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="65"/>
+        <v>146</v>
+      </c>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8096,7 +8156,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8104,10 +8164,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8115,7 +8175,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -8123,7 +8183,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -8131,10 +8191,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8142,7 +8202,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -8150,7 +8210,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -8158,7 +8218,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -8166,7 +8226,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -8174,7 +8234,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -8182,10 +8242,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -8193,10 +8253,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8204,10 +8264,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,10 +8275,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,10 +8286,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8237,10 +8297,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,10 +8308,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,10 +8319,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,10 +8330,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,10 +8341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,10 +8352,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,10 +8363,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,7 +8374,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8322,7 +8382,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8330,10 +8390,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8341,10 +8401,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8352,10 +8412,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8363,10 +8423,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8374,7 +8434,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8382,7 +8442,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8390,7 +8450,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8398,10 +8458,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8409,10 +8469,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>253</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8420,10 +8480,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>290</v>
+        <v>59</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8431,10 +8491,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="68" t="s">
-        <v>281</v>
+        <v>87</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8442,10 +8502,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8453,10 +8513,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8464,7 +8524,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8472,7 +8532,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,7 +8540,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8488,7 +8548,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8496,7 +8556,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8504,7 +8564,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,7 +8572,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8520,11 +8580,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSA_parameters.xlsx
+++ b/CSA_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="8" r:id="rId1"/>
@@ -2179,9 +2179,6 @@
     <t>https://github.com/idslme/IDSL.FSA/wiki/Spectral-Similarity-Metrics</t>
   </si>
   <si>
-    <t>https://github.com/idslme/IDSL.CSA/wiki/CSA-analysis-by-IDSL.CSA</t>
-  </si>
-  <si>
     <t>https://github.com/idslme/IDSL.FSA/wiki/MSP-Standardizations#standardizing-precursor-types</t>
   </si>
   <si>
@@ -3813,9 +3810,6 @@
     </r>
   </si>
   <si>
-    <t>https://github.com/idslme/IDSL.CSA/wiki/Aligned-CSA-spectra-aggregation</t>
-  </si>
-  <si>
     <t>https://github.com/idslme/IDSL.CSA/wiki/DIA-analysis-by-IDSL.CSA</t>
   </si>
   <si>
@@ -4178,13 +4172,19 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.CSA/wiki/CSA-analysis-by-IDSL.CSA#csa-msp-generation</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.CSA/wiki/CSA-analysis-by-IDSL.CSA#csa-aggregation-on-the-aligned-table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4340,6 +4340,21 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -4616,7 +4631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5062,27 +5077,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5109,15 +5103,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5209,6 +5194,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5527,7 +5548,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="157" t="s">
         <v>214</v>
       </c>
       <c r="B2" s="71" t="s">
@@ -5540,11 +5561,11 @@
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="71" t="s">
         <v>198</v>
       </c>
@@ -5559,22 +5580,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
+      <c r="A4" s="157"/>
       <c r="B4" s="71" t="s">
         <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="164"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="71" t="s">
         <v>200</v>
       </c>
@@ -5585,11 +5606,11 @@
         <v>44</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="164"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="71" t="s">
         <v>201</v>
       </c>
@@ -5600,11 +5621,11 @@
         <v>44</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="78" t="s">
         <v>202</v>
       </c>
@@ -5615,11 +5636,11 @@
         <v>44</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="158" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -5637,7 +5658,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="166"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="13" t="s">
         <v>204</v>
       </c>
@@ -5649,11 +5670,11 @@
         <v>/path/to/folder//CSA_MSP</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="11" t="s">
         <v>205</v>
       </c>
@@ -5703,9 +5724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5740,8 +5761,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
-        <v>371</v>
+      <c r="A2" s="163" t="s">
+        <v>370</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>174</v>
@@ -5753,28 +5774,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="F2" s="153"/>
+        <v>410</v>
+      </c>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="142" t="s">
         <v>175</v>
       </c>
       <c r="C3" s="143" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="142" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="143" t="s">
-        <v>365</v>
-      </c>
-      <c r="F3" s="154"/>
+        <v>364</v>
+      </c>
+      <c r="F3" s="196"/>
     </row>
     <row r="4" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="142" t="s">
         <v>176</v>
       </c>
@@ -5785,17 +5806,17 @@
         <v>15</v>
       </c>
       <c r="E4" s="143" t="s">
-        <v>382</v>
-      </c>
-      <c r="F4" s="154"/>
+        <v>381</v>
+      </c>
+      <c r="F4" s="196"/>
     </row>
     <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="175"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="89" t="s">
         <v>177</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D5" s="89">
         <v>1</v>
@@ -5803,10 +5824,10 @@
       <c r="E5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="155"/>
+      <c r="F5" s="197"/>
     </row>
     <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="166" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="69" t="s">
@@ -5819,26 +5840,26 @@
         <v>100</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="156"/>
+      <c r="F6" s="198"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
+      <c r="A7" s="167"/>
       <c r="B7" s="69" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>237</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="F7" s="156"/>
+        <v>412</v>
+      </c>
+      <c r="F7" s="198"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="44" t="s">
         <v>180</v>
       </c>
@@ -5849,17 +5870,17 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="F8" s="157"/>
+        <v>382</v>
+      </c>
+      <c r="F8" s="199"/>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="44" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>39</v>
@@ -5867,26 +5888,26 @@
       <c r="E9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="157"/>
+      <c r="F9" s="199"/>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="44" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="F10" s="157"/>
+        <v>369</v>
+      </c>
+      <c r="F10" s="199"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="44" t="s">
         <v>188</v>
       </c>
@@ -5899,15 +5920,15 @@
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="158"/>
+      <c r="F11" s="200"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="178"/>
+      <c r="A12" s="168"/>
       <c r="B12" s="50" t="s">
         <v>303</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>100</v>
@@ -5915,35 +5936,35 @@
       <c r="E12" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="159"/>
+      <c r="F12" s="201"/>
     </row>
     <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179" t="s">
-        <v>321</v>
+      <c r="A13" s="169" t="s">
+        <v>320</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>277</v>
       </c>
       <c r="E13" s="141" t="s">
-        <v>366</v>
-      </c>
-      <c r="F13" s="181" t="s">
-        <v>311</v>
+        <v>365</v>
+      </c>
+      <c r="F13" s="171" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="18" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D14" s="18">
         <v>0.01</v>
@@ -5951,10 +5972,10 @@
       <c r="E14" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="181"/>
+      <c r="F14" s="171"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="18" t="s">
         <v>208</v>
       </c>
@@ -5967,10 +5988,10 @@
       <c r="E15" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="181"/>
+      <c r="F15" s="171"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="18" t="s">
         <v>191</v>
       </c>
@@ -5983,10 +6004,10 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="181"/>
+      <c r="F16" s="171"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="66" t="s">
         <v>192</v>
       </c>
@@ -5999,10 +6020,10 @@
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="171"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="66" t="s">
         <v>209</v>
       </c>
@@ -6015,10 +6036,10 @@
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="171"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="38" t="s">
         <v>210</v>
       </c>
@@ -6031,10 +6052,10 @@
       <c r="E19" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="181"/>
+      <c r="F19" s="171"/>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="38" t="s">
         <v>193</v>
       </c>
@@ -6047,15 +6068,15 @@
       <c r="E20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="181"/>
+      <c r="F20" s="171"/>
     </row>
     <row r="21" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="179"/>
+      <c r="A21" s="169"/>
       <c r="B21" s="38" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D21" s="66">
         <v>0</v>
@@ -6063,15 +6084,15 @@
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="181"/>
+      <c r="F21" s="171"/>
     </row>
     <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="179"/>
+      <c r="A22" s="169"/>
       <c r="B22" s="38" t="s">
         <v>219</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D22" s="66">
         <v>2</v>
@@ -6079,10 +6100,10 @@
       <c r="E22" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="181"/>
+      <c r="F22" s="171"/>
     </row>
     <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="180"/>
+      <c r="A23" s="170"/>
       <c r="B23" s="68" t="s">
         <v>220</v>
       </c>
@@ -6095,35 +6116,35 @@
       <c r="E23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="182"/>
+      <c r="F23" s="172"/>
     </row>
     <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="183" t="s">
-        <v>364</v>
+      <c r="A24" s="173" t="s">
+        <v>363</v>
       </c>
       <c r="B24" s="126" t="s">
         <v>221</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D24" s="126" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="127" t="s">
-        <v>385</v>
-      </c>
-      <c r="F24" s="186" t="s">
-        <v>414</v>
+        <v>384</v>
+      </c>
+      <c r="F24" s="176" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="129" t="s">
         <v>222</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>44</v>
@@ -6131,59 +6152,59 @@
       <c r="E25" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="187"/>
+      <c r="F25" s="202"/>
     </row>
     <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="184"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="129" t="s">
         <v>223</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" s="129">
         <f>D17</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26" s="128" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26" s="187"/>
+        <v>385</v>
+      </c>
+      <c r="F26" s="202"/>
     </row>
     <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="129" t="s">
         <v>224</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D27" s="129">
         <v>0.05</v>
       </c>
       <c r="E27" s="128" t="s">
-        <v>387</v>
-      </c>
-      <c r="F27" s="187"/>
+        <v>386</v>
+      </c>
+      <c r="F27" s="202"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="184"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="129" t="s">
         <v>227</v>
       </c>
       <c r="C28" s="128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D28" s="129">
         <v>10</v>
       </c>
       <c r="E28" s="128" t="s">
-        <v>424</v>
-      </c>
-      <c r="F28" s="187"/>
+        <v>422</v>
+      </c>
+      <c r="F28" s="202"/>
     </row>
     <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="129" t="s">
         <v>231</v>
       </c>
@@ -6196,10 +6217,10 @@
       <c r="E29" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="187"/>
+      <c r="F29" s="202"/>
     </row>
     <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="185"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="124" t="s">
         <v>232</v>
       </c>
@@ -6212,17 +6233,17 @@
       <c r="E30" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="188"/>
+      <c r="F30" s="203"/>
     </row>
     <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="168" t="s">
+      <c r="A31" s="161" t="s">
         <v>225</v>
       </c>
       <c r="B31" s="80" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="80">
         <v>0.05</v>
@@ -6230,17 +6251,17 @@
       <c r="E31" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="170" t="s">
-        <v>419</v>
+      <c r="F31" s="194" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="168"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="82" t="s">
         <v>240</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D32" s="82">
         <v>5</v>
@@ -6248,15 +6269,15 @@
       <c r="E32" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="171"/>
+      <c r="F32" s="204"/>
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
+      <c r="A33" s="161"/>
       <c r="B33" s="84" t="s">
         <v>244</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D33" s="84">
         <v>3</v>
@@ -6264,15 +6285,15 @@
       <c r="E33" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="171"/>
+      <c r="F33" s="204"/>
     </row>
     <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="168"/>
+      <c r="A34" s="161"/>
       <c r="B34" s="84" t="s">
         <v>252</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" s="84">
         <v>0.1</v>
@@ -6280,15 +6301,15 @@
       <c r="E34" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="171"/>
+      <c r="F34" s="204"/>
     </row>
     <row r="35" spans="1:6" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
+      <c r="A35" s="161"/>
       <c r="B35" s="84" t="s">
         <v>253</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35" s="84">
         <v>0.5</v>
@@ -6296,15 +6317,15 @@
       <c r="E35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="171"/>
+      <c r="F35" s="204"/>
     </row>
     <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="168"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C36" s="95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D36" s="84" t="s">
         <v>44</v>
@@ -6312,12 +6333,12 @@
       <c r="E36" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="171"/>
+      <c r="F36" s="204"/>
     </row>
     <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
+      <c r="A37" s="161"/>
       <c r="B37" s="84" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C37" s="95" t="s">
         <v>241</v>
@@ -6329,12 +6350,12 @@
       <c r="E37" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="171"/>
+      <c r="F37" s="204"/>
     </row>
     <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="168"/>
+      <c r="A38" s="161"/>
       <c r="B38" s="84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>308</v>
@@ -6345,12 +6366,12 @@
       <c r="E38" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="171"/>
+      <c r="F38" s="204"/>
     </row>
     <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="168"/>
+      <c r="A39" s="161"/>
       <c r="B39" s="96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C39" s="97" t="s">
         <v>235</v>
@@ -6361,23 +6382,23 @@
       <c r="E39" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="171"/>
+      <c r="F39" s="204"/>
     </row>
     <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="169"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="93" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="93" t="s">
         <v>237</v>
       </c>
       <c r="E40" s="86" t="s">
-        <v>327</v>
-      </c>
-      <c r="F40" s="172"/>
+        <v>326</v>
+      </c>
+      <c r="F40" s="205"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6392,9 +6413,9 @@
     <mergeCell ref="F24:F30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId1" location="csa-msp-generation"/>
     <hyperlink ref="F24" r:id="rId2"/>
-    <hyperlink ref="F31" r:id="rId3"/>
+    <hyperlink ref="F31" r:id="rId3" location="csa-aggregation-on-the-aligned-table"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -6442,8 +6463,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
-        <v>372</v>
+      <c r="A2" s="163" t="s">
+        <v>371</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>28</v>
@@ -6455,28 +6476,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F2" s="138"/>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="136" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="175"/>
+      <c r="A4" s="165"/>
       <c r="B4" s="89" t="s">
         <v>30</v>
       </c>
@@ -6493,7 +6514,7 @@
       <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="166" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="79" t="s">
@@ -6510,24 +6531,24 @@
       <c r="F5" s="111"/>
     </row>
     <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="79" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F6" s="111"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
+      <c r="A7" s="167"/>
       <c r="B7" s="42" t="s">
         <v>55</v>
       </c>
@@ -6539,17 +6560,17 @@
         <v>All</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F7" s="112"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
@@ -6561,24 +6582,24 @@
       <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F9" s="113"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="42" t="s">
         <v>304</v>
       </c>
@@ -6589,14 +6610,14 @@
         <v>14</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>35</v>
@@ -6610,12 +6631,12 @@
       <c r="F11" s="113"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="178"/>
+      <c r="A12" s="168"/>
       <c r="B12" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
@@ -6627,7 +6648,7 @@
       <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="179" t="s">
         <v>213</v>
       </c>
       <c r="B13" s="130" t="s">
@@ -6637,17 +6658,17 @@
         <v>36</v>
       </c>
       <c r="D13" s="132" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="E13" s="133" t="s">
-        <v>315</v>
-      </c>
-      <c r="F13" s="163" t="s">
-        <v>421</v>
+      <c r="F13" s="156" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="53" t="s">
         <v>52</v>
       </c>
@@ -6660,12 +6681,12 @@
       <c r="E14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="191" t="s">
+      <c r="F14" s="181" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="189"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="51" t="s">
         <v>144</v>
       </c>
@@ -6676,12 +6697,12 @@
         <v>143</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>373</v>
-      </c>
-      <c r="F15" s="192"/>
+        <v>372</v>
+      </c>
+      <c r="F15" s="182"/>
     </row>
     <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="189"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="53" t="s">
         <v>145</v>
       </c>
@@ -6694,10 +6715,10 @@
       <c r="E16" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="192"/>
+      <c r="F16" s="182"/>
     </row>
     <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="189"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="53" t="s">
         <v>165</v>
       </c>
@@ -6710,10 +6731,10 @@
       <c r="E17" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="182"/>
     </row>
     <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="189"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="53" t="s">
         <v>166</v>
       </c>
@@ -6726,10 +6747,10 @@
       <c r="E18" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="192"/>
+      <c r="F18" s="182"/>
     </row>
     <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="190"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="55" t="s">
         <v>167</v>
       </c>
@@ -6742,35 +6763,35 @@
       <c r="E19" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="193"/>
+      <c r="F19" s="183"/>
     </row>
     <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183" t="s">
-        <v>364</v>
+      <c r="A20" s="173" t="s">
+        <v>363</v>
       </c>
       <c r="B20" s="126" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D20" s="126" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="127" t="s">
-        <v>391</v>
-      </c>
-      <c r="F20" s="186" t="s">
-        <v>414</v>
+        <v>390</v>
+      </c>
+      <c r="F20" s="176" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="184"/>
+      <c r="A21" s="174"/>
       <c r="B21" s="129" t="s">
         <v>254</v>
       </c>
       <c r="C21" s="128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>44</v>
@@ -6778,61 +6799,61 @@
       <c r="E21" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="187"/>
+      <c r="F21" s="177"/>
     </row>
     <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="184"/>
+      <c r="A22" s="174"/>
       <c r="B22" s="129" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C22" s="128" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22" s="129">
         <f>D14</f>
         <v>0.01</v>
       </c>
       <c r="E22" s="128" t="s">
-        <v>392</v>
-      </c>
-      <c r="F22" s="187"/>
+        <v>391</v>
+      </c>
+      <c r="F22" s="177"/>
     </row>
     <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="174"/>
       <c r="B23" s="129" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D23" s="122">
         <v>0.05</v>
       </c>
       <c r="E23" s="123" t="s">
-        <v>393</v>
-      </c>
-      <c r="F23" s="187"/>
+        <v>392</v>
+      </c>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="184"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D24" s="129">
         <v>10</v>
       </c>
       <c r="E24" s="128" t="s">
-        <v>423</v>
-      </c>
-      <c r="F24" s="187"/>
+        <v>421</v>
+      </c>
+      <c r="F24" s="177"/>
     </row>
     <row r="25" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C25" s="128" t="s">
         <v>308</v>
@@ -6843,12 +6864,12 @@
       <c r="E25" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="187"/>
+      <c r="F25" s="177"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="185"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C26" s="125" t="s">
         <v>258</v>
@@ -6859,7 +6880,7 @@
       <c r="E26" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="188"/>
+      <c r="F26" s="178"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6921,8 +6942,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
-        <v>374</v>
+      <c r="A2" s="163" t="s">
+        <v>373</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>17</v>
@@ -6934,28 +6955,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F2" s="138"/>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="136" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="175"/>
+      <c r="A4" s="165"/>
       <c r="B4" s="89" t="s">
         <v>19</v>
       </c>
@@ -6972,7 +6993,7 @@
       <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="166" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="79" t="s">
@@ -6989,24 +7010,24 @@
       <c r="F5" s="111"/>
     </row>
     <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="79" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F6" s="111"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177"/>
+      <c r="A7" s="167"/>
       <c r="B7" s="42" t="s">
         <v>22</v>
       </c>
@@ -7018,17 +7039,17 @@
         <v>All</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F7" s="112"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="177"/>
+      <c r="A8" s="167"/>
       <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
@@ -7040,24 +7061,24 @@
       <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177"/>
+      <c r="A9" s="167"/>
       <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>351</v>
-      </c>
-      <c r="F9" s="160"/>
+        <v>350</v>
+      </c>
+      <c r="F9" s="153"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="42" t="s">
         <v>305</v>
       </c>
@@ -7068,14 +7089,14 @@
         <v>14</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="160"/>
+        <v>394</v>
+      </c>
+      <c r="F10" s="153"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
+      <c r="A11" s="167"/>
       <c r="B11" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>288</v>
@@ -7086,15 +7107,15 @@
       <c r="E11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="160"/>
+      <c r="F11" s="153"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="178"/>
+      <c r="A12" s="168"/>
       <c r="B12" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
@@ -7103,10 +7124,10 @@
       <c r="E12" s="103" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="161"/>
+      <c r="F12" s="154"/>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="169" t="s">
         <v>216</v>
       </c>
       <c r="B13" s="132" t="s">
@@ -7116,22 +7137,22 @@
         <v>36</v>
       </c>
       <c r="D13" s="132" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="134" t="s">
         <v>314</v>
       </c>
-      <c r="E13" s="134" t="s">
-        <v>315</v>
-      </c>
-      <c r="F13" s="162" t="s">
-        <v>421</v>
+      <c r="F13" s="155" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="38" t="s">
         <v>255</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D14" s="140">
         <v>1000</v>
@@ -7139,14 +7160,14 @@
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="194" t="s">
-        <v>420</v>
+      <c r="F14" s="184" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -7157,10 +7178,10 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="181"/>
+      <c r="F15" s="171"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="38" t="s">
         <v>306</v>
       </c>
@@ -7173,10 +7194,10 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="181"/>
+      <c r="F16" s="171"/>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="66" t="s">
         <v>37</v>
       </c>
@@ -7189,10 +7210,10 @@
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="171"/>
     </row>
     <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="66" t="s">
         <v>38</v>
       </c>
@@ -7205,10 +7226,10 @@
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="171"/>
     </row>
     <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="38" t="s">
         <v>149</v>
       </c>
@@ -7221,10 +7242,10 @@
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="181"/>
+      <c r="F19" s="171"/>
     </row>
     <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179"/>
+      <c r="A20" s="169"/>
       <c r="B20" s="38" t="s">
         <v>155</v>
       </c>
@@ -7237,10 +7258,10 @@
       <c r="E20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="181"/>
+      <c r="F20" s="171"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="180"/>
+      <c r="A21" s="170"/>
       <c r="B21" s="68" t="s">
         <v>156</v>
       </c>
@@ -7253,35 +7274,35 @@
       <c r="E21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="182"/>
+      <c r="F21" s="172"/>
     </row>
     <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="183" t="s">
-        <v>364</v>
+      <c r="A22" s="173" t="s">
+        <v>363</v>
       </c>
       <c r="B22" s="126" t="s">
         <v>215</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D22" s="126" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="127" t="s">
-        <v>396</v>
-      </c>
-      <c r="F22" s="186" t="s">
-        <v>414</v>
+        <v>395</v>
+      </c>
+      <c r="F22" s="176" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184"/>
+      <c r="A23" s="174"/>
       <c r="B23" s="129" t="s">
         <v>256</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>44</v>
@@ -7289,61 +7310,61 @@
       <c r="E23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="187"/>
+      <c r="F23" s="177"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="184"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24" s="129">
         <f>D17</f>
         <v>0.01</v>
       </c>
       <c r="E24" s="128" t="s">
-        <v>397</v>
-      </c>
-      <c r="F24" s="187"/>
+        <v>396</v>
+      </c>
+      <c r="F24" s="177"/>
     </row>
     <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="129" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D25" s="122">
         <v>0.05</v>
       </c>
       <c r="E25" s="123" t="s">
-        <v>398</v>
-      </c>
-      <c r="F25" s="187"/>
+        <v>397</v>
+      </c>
+      <c r="F25" s="177"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="184"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="129" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D26" s="129">
         <v>10</v>
       </c>
       <c r="E26" s="128" t="s">
-        <v>422</v>
-      </c>
-      <c r="F26" s="187"/>
+        <v>420</v>
+      </c>
+      <c r="F26" s="177"/>
     </row>
     <row r="27" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="129" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27" s="128" t="s">
         <v>308</v>
@@ -7354,12 +7375,12 @@
       <c r="E27" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="187"/>
+      <c r="F27" s="177"/>
     </row>
     <row r="28" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="185"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="125" t="s">
         <v>257</v>
@@ -7370,7 +7391,7 @@
       <c r="E28" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="188"/>
+      <c r="F28" s="178"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7427,14 +7448,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="158" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="148" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="149" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D2" s="150" t="s">
         <v>136</v>
@@ -7442,7 +7463,7 @@
       <c r="E2" s="151"/>
     </row>
     <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="166"/>
+      <c r="A3" s="159"/>
       <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
@@ -7453,41 +7474,41 @@
         <v>14</v>
       </c>
       <c r="E3" s="152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="166"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="152" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="185" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -7505,7 +7526,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="22" t="s">
         <v>130</v>
       </c>
@@ -7521,7 +7542,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="22" t="s">
         <v>141</v>
       </c>
@@ -7537,9 +7558,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="197"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="146" t="s">
         <v>171</v>
@@ -7567,7 +7588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -7603,7 +7624,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="188" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -7619,12 +7640,12 @@
       <c r="E2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="200" t="s">
-        <v>421</v>
+      <c r="F2" s="190" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="179"/>
+      <c r="A3" s="169"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
@@ -7632,15 +7653,15 @@
         <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="108" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="108" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" s="199"/>
+      <c r="F3" s="189"/>
     </row>
     <row r="4" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="179"/>
+      <c r="A4" s="169"/>
       <c r="B4" s="4" t="s">
         <v>110</v>
       </c>
@@ -7654,11 +7675,11 @@
         <v>294</v>
       </c>
       <c r="F4" s="121" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="179"/>
+      <c r="A5" s="169"/>
       <c r="B5" s="18" t="s">
         <v>111</v>
       </c>
@@ -7669,12 +7690,12 @@
         <v>237</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F5" s="118"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="179"/>
+      <c r="A6" s="169"/>
       <c r="B6" s="18" t="s">
         <v>112</v>
       </c>
@@ -7690,7 +7711,7 @@
       <c r="F6" s="118"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179"/>
+      <c r="A7" s="169"/>
       <c r="B7" s="18" t="s">
         <v>113</v>
       </c>
@@ -7706,7 +7727,7 @@
       <c r="F7" s="118"/>
     </row>
     <row r="8" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="179"/>
+      <c r="A8" s="169"/>
       <c r="B8" s="18" t="s">
         <v>114</v>
       </c>
@@ -7719,12 +7740,12 @@
       <c r="E8" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="194" t="s">
+      <c r="F8" s="184" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="18" t="s">
         <v>115</v>
       </c>
@@ -7737,10 +7758,10 @@
       <c r="E9" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="F9" s="181"/>
+      <c r="F9" s="171"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="179"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="18" t="s">
         <v>116</v>
       </c>
@@ -7753,10 +7774,10 @@
       <c r="E10" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="181"/>
+      <c r="F10" s="171"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="179"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="18" t="s">
         <v>117</v>
       </c>
@@ -7769,10 +7790,10 @@
       <c r="E11" s="109" t="s">
         <v>302</v>
       </c>
-      <c r="F11" s="181"/>
+      <c r="F11" s="171"/>
     </row>
     <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="4" t="s">
         <v>118</v>
       </c>
@@ -7785,10 +7806,10 @@
       <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="181"/>
+      <c r="F12" s="171"/>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="4" t="s">
         <v>119</v>
       </c>
@@ -7801,15 +7822,15 @@
       <c r="E13" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="181"/>
+      <c r="F13" s="171"/>
     </row>
     <row r="14" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="169"/>
       <c r="B14" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D14" s="18">
         <v>0</v>
@@ -7817,10 +7838,10 @@
       <c r="E14" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="181"/>
+      <c r="F14" s="171"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="4" t="s">
         <v>148</v>
       </c>
@@ -7833,10 +7854,10 @@
       <c r="E15" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="181"/>
+      <c r="F15" s="171"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="4" t="s">
         <v>153</v>
       </c>
@@ -7849,10 +7870,10 @@
       <c r="E16" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="181"/>
+      <c r="F16" s="171"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="4" t="s">
         <v>154</v>
       </c>
@@ -7865,10 +7886,10 @@
       <c r="E17" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="171"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="169"/>
       <c r="B18" s="4" t="s">
         <v>206</v>
       </c>
@@ -7881,10 +7902,10 @@
       <c r="E18" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="199"/>
+      <c r="F18" s="189"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="179"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="117" t="s">
         <v>238</v>
       </c>
@@ -7900,9 +7921,9 @@
       <c r="F19" s="119"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="180"/>
+      <c r="A20" s="170"/>
       <c r="B20" s="115" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>50</v>
@@ -7968,14 +7989,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="68.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="191" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D2" s="29" t="str">
         <f>DIA!D9</f>
@@ -7984,7 +8005,7 @@
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202"/>
+      <c r="A3" s="192"/>
       <c r="B3" s="27" t="s">
         <v>122</v>
       </c>
@@ -8000,7 +8021,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202"/>
+      <c r="A4" s="192"/>
       <c r="B4" s="58" t="s">
         <v>123</v>
       </c>
@@ -8015,7 +8036,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="58" t="s">
         <v>124</v>
       </c>
@@ -8030,7 +8051,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="202"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="58" t="s">
         <v>125</v>
       </c>
@@ -8045,7 +8066,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="202"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="61" t="s">
         <v>126</v>
       </c>
@@ -8060,12 +8081,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="202"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="61" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>261</v>
@@ -8075,7 +8096,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="202"/>
+      <c r="A9" s="192"/>
       <c r="B9" s="61" t="s">
         <v>128</v>
       </c>
@@ -8090,7 +8111,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="31" t="s">
         <v>129</v>
       </c>
@@ -8148,7 +8169,7 @@
         <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8194,7 +8215,7 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/CSA_parameters.xlsx
+++ b/CSA_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="430">
   <si>
     <t>Analysis step</t>
   </si>
@@ -1795,89 +1795,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Default </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FSDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> index number). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>InChIKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or any variable from the `</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MetaVariables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>` tab.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>TRUE or FALSE (When TRUE, it sorts candidate molecular formulas using the `</t>
     </r>
     <r>
@@ -2686,9 +2603,6 @@
     <t>Export aligned CSA spectra plots</t>
   </si>
   <si>
-    <t>Creat unique spectra by measuring pairwise similarity across entire samples</t>
-  </si>
-  <si>
     <t>"YES" OR "NO", When "YES", fill out CSA0023-CSA0029</t>
   </si>
   <si>
@@ -4178,6 +4092,115 @@
   </si>
   <si>
     <t>https://github.com/idslme/IDSL.CSA/wiki/CSA-analysis-by-IDSL.CSA#csa-aggregation-on-the-aligned-table</t>
+  </si>
+  <si>
+    <t>Create unique spectra by measuring pairwise similarity across entire samples</t>
+  </si>
+  <si>
+    <t>InChIKey14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FSDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> index number) or any variable from the `</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MetaVariables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">` tab. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>InChIKey14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> performs the aggregation only based on the first 14 letters of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>InChIKeys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5085,6 +5108,27 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5103,6 +5147,15 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5143,6 +5196,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5194,42 +5253,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5515,7 +5538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
@@ -5548,24 +5571,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="164" t="s">
         <v>214</v>
       </c>
       <c r="B2" s="71" t="s">
         <v>197</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="71" t="s">
         <v>198</v>
       </c>
@@ -5580,22 +5603,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="71" t="s">
         <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="71" t="s">
         <v>200</v>
       </c>
@@ -5606,11 +5629,11 @@
         <v>44</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="157"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="71" t="s">
         <v>201</v>
       </c>
@@ -5621,11 +5644,11 @@
         <v>44</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="157"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="78" t="s">
         <v>202</v>
       </c>
@@ -5636,11 +5659,11 @@
         <v>44</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="165" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -5658,7 +5681,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="13" t="s">
         <v>204</v>
       </c>
@@ -5670,11 +5693,11 @@
         <v>/path/to/folder//CSA_MSP</v>
       </c>
       <c r="E9" s="75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="160"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="11" t="s">
         <v>205</v>
       </c>
@@ -5724,9 +5747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5757,12 +5780,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
-        <v>370</v>
+      <c r="A2" s="173" t="s">
+        <v>368</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>174</v>
@@ -5774,28 +5797,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" s="195"/>
+        <v>408</v>
+      </c>
+      <c r="F2" s="157"/>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="142" t="s">
         <v>175</v>
       </c>
       <c r="C3" s="143" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="142" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="143" t="s">
-        <v>364</v>
-      </c>
-      <c r="F3" s="196"/>
+        <v>362</v>
+      </c>
+      <c r="F3" s="158"/>
     </row>
     <row r="4" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="164"/>
+      <c r="A4" s="174"/>
       <c r="B4" s="142" t="s">
         <v>176</v>
       </c>
@@ -5806,17 +5829,17 @@
         <v>15</v>
       </c>
       <c r="E4" s="143" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" s="196"/>
+        <v>379</v>
+      </c>
+      <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="165"/>
+      <c r="A5" s="175"/>
       <c r="B5" s="89" t="s">
         <v>177</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" s="89">
         <v>1</v>
@@ -5824,10 +5847,10 @@
       <c r="E5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="197"/>
+      <c r="F5" s="159"/>
     </row>
     <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="176" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="69" t="s">
@@ -5840,47 +5863,47 @@
         <v>100</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="198"/>
+      <c r="F6" s="160"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="69" t="s">
         <v>179</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>237</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F7" s="198"/>
+        <v>410</v>
+      </c>
+      <c r="F7" s="160"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="44" t="s">
         <v>180</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D8" s="44" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" s="199"/>
+        <v>380</v>
+      </c>
+      <c r="F8" s="161"/>
     </row>
     <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="44" t="s">
         <v>181</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>39</v>
@@ -5888,31 +5911,31 @@
       <c r="E9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="199"/>
+      <c r="F9" s="161"/>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="167"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="44" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D10" s="44" t="s">
         <v>226</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F10" s="199"/>
+        <v>367</v>
+      </c>
+      <c r="F10" s="161"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="44" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>44</v>
@@ -5920,15 +5943,15 @@
       <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="200"/>
+      <c r="F11" s="162"/>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>100</v>
@@ -5936,35 +5959,35 @@
       <c r="E12" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="201"/>
+      <c r="F12" s="163"/>
     </row>
     <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
-        <v>320</v>
+      <c r="A13" s="179" t="s">
+        <v>319</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>277</v>
       </c>
       <c r="E13" s="141" t="s">
-        <v>365</v>
-      </c>
-      <c r="F13" s="171" t="s">
-        <v>427</v>
+        <v>363</v>
+      </c>
+      <c r="F13" s="181" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="18" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="18">
         <v>0.01</v>
@@ -5972,10 +5995,10 @@
       <c r="E14" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="171"/>
+      <c r="F14" s="181"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
         <v>208</v>
       </c>
@@ -5988,10 +6011,10 @@
       <c r="E15" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="171"/>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="18" t="s">
         <v>191</v>
       </c>
@@ -6004,10 +6027,10 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="171"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="66" t="s">
         <v>192</v>
       </c>
@@ -6020,15 +6043,15 @@
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="171"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="66" t="s">
         <v>209</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D18" s="66">
         <v>250</v>
@@ -6036,10 +6059,10 @@
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="171"/>
+      <c r="F18" s="181"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="38" t="s">
         <v>210</v>
       </c>
@@ -6052,10 +6075,10 @@
       <c r="E19" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="171"/>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="38" t="s">
         <v>193</v>
       </c>
@@ -6068,15 +6091,15 @@
       <c r="E20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="171"/>
+      <c r="F20" s="181"/>
     </row>
     <row r="21" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="169"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="38" t="s">
         <v>218</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D21" s="66">
         <v>0</v>
@@ -6084,15 +6107,15 @@
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="171"/>
+      <c r="F21" s="181"/>
     </row>
     <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="169"/>
+      <c r="A22" s="179"/>
       <c r="B22" s="38" t="s">
         <v>219</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="66">
         <v>2</v>
@@ -6100,10 +6123,10 @@
       <c r="E22" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="171"/>
+      <c r="F22" s="181"/>
     </row>
     <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="170"/>
+      <c r="A23" s="180"/>
       <c r="B23" s="68" t="s">
         <v>220</v>
       </c>
@@ -6116,35 +6139,35 @@
       <c r="E23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="172"/>
+      <c r="F23" s="182"/>
     </row>
     <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173" t="s">
-        <v>363</v>
+      <c r="A24" s="183" t="s">
+        <v>427</v>
       </c>
       <c r="B24" s="126" t="s">
         <v>221</v>
       </c>
       <c r="C24" s="127" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D24" s="126" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="127" t="s">
-        <v>384</v>
-      </c>
-      <c r="F24" s="176" t="s">
-        <v>413</v>
+        <v>382</v>
+      </c>
+      <c r="F24" s="186" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
         <v>222</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>44</v>
@@ -6152,64 +6175,64 @@
       <c r="E25" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="202"/>
+      <c r="F25" s="187"/>
     </row>
     <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="129" t="s">
         <v>223</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26" s="129">
         <f>D17</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E26" s="128" t="s">
-        <v>385</v>
-      </c>
-      <c r="F26" s="202"/>
+        <v>383</v>
+      </c>
+      <c r="F26" s="187"/>
     </row>
     <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="129" t="s">
         <v>224</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D27" s="129">
         <v>0.05</v>
       </c>
       <c r="E27" s="128" t="s">
-        <v>386</v>
-      </c>
-      <c r="F27" s="202"/>
+        <v>384</v>
+      </c>
+      <c r="F27" s="187"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
+      <c r="A28" s="184"/>
       <c r="B28" s="129" t="s">
         <v>227</v>
       </c>
       <c r="C28" s="128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D28" s="129">
         <v>10</v>
       </c>
       <c r="E28" s="128" t="s">
-        <v>422</v>
-      </c>
-      <c r="F28" s="202"/>
+        <v>420</v>
+      </c>
+      <c r="F28" s="187"/>
     </row>
     <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="174"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="129" t="s">
         <v>231</v>
       </c>
       <c r="C29" s="128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D29" s="122" t="b">
         <v>1</v>
@@ -6217,10 +6240,10 @@
       <c r="E29" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="202"/>
+      <c r="F29" s="187"/>
     </row>
     <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="175"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="124" t="s">
         <v>232</v>
       </c>
@@ -6233,17 +6256,17 @@
       <c r="E30" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="203"/>
+      <c r="F30" s="188"/>
     </row>
     <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="168" t="s">
         <v>225</v>
       </c>
       <c r="B31" s="80" t="s">
         <v>234</v>
       </c>
       <c r="C31" s="95" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D31" s="80">
         <v>0.05</v>
@@ -6251,17 +6274,17 @@
       <c r="E31" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="194" t="s">
-        <v>428</v>
+      <c r="F31" s="170" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
+      <c r="A32" s="168"/>
       <c r="B32" s="82" t="s">
         <v>240</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D32" s="82">
         <v>5</v>
@@ -6269,15 +6292,15 @@
       <c r="E32" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="204"/>
+      <c r="F32" s="171"/>
     </row>
     <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="161"/>
+      <c r="A33" s="168"/>
       <c r="B33" s="84" t="s">
         <v>244</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D33" s="84">
         <v>3</v>
@@ -6285,15 +6308,15 @@
       <c r="E33" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="204"/>
+      <c r="F33" s="171"/>
     </row>
     <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="161"/>
+      <c r="A34" s="168"/>
       <c r="B34" s="84" t="s">
         <v>252</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D34" s="84">
         <v>0.1</v>
@@ -6301,15 +6324,15 @@
       <c r="E34" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="204"/>
+      <c r="F34" s="171"/>
     </row>
     <row r="35" spans="1:6" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="161"/>
+      <c r="A35" s="168"/>
       <c r="B35" s="84" t="s">
         <v>253</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D35" s="84">
         <v>0.5</v>
@@ -6317,15 +6340,15 @@
       <c r="E35" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="204"/>
+      <c r="F35" s="171"/>
     </row>
     <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="161"/>
+      <c r="A36" s="168"/>
       <c r="B36" s="84" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D36" s="84" t="s">
         <v>44</v>
@@ -6333,12 +6356,12 @@
       <c r="E36" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="204"/>
+      <c r="F36" s="171"/>
     </row>
     <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
+      <c r="A37" s="168"/>
       <c r="B37" s="84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="95" t="s">
         <v>241</v>
@@ -6350,15 +6373,15 @@
       <c r="E37" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="204"/>
+      <c r="F37" s="171"/>
     </row>
     <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
+      <c r="A38" s="168"/>
       <c r="B38" s="84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D38" s="84" t="b">
         <v>1</v>
@@ -6366,12 +6389,12 @@
       <c r="E38" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="204"/>
+      <c r="F38" s="171"/>
     </row>
     <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="161"/>
+      <c r="A39" s="168"/>
       <c r="B39" s="96" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C39" s="97" t="s">
         <v>235</v>
@@ -6382,23 +6405,23 @@
       <c r="E39" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="204"/>
+      <c r="F39" s="171"/>
     </row>
     <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="162"/>
+      <c r="A40" s="169"/>
       <c r="B40" s="93" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C40" s="94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D40" s="93" t="s">
         <v>237</v>
       </c>
       <c r="E40" s="86" t="s">
-        <v>326</v>
-      </c>
-      <c r="F40" s="205"/>
+        <v>325</v>
+      </c>
+      <c r="F40" s="172"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6427,8 +6450,8 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6459,12 +6482,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
-        <v>371</v>
+      <c r="A2" s="173" t="s">
+        <v>369</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>28</v>
@@ -6476,28 +6499,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F2" s="138"/>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="136" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
+      <c r="A4" s="175"/>
       <c r="B4" s="89" t="s">
         <v>30</v>
       </c>
@@ -6514,7 +6537,7 @@
       <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="79" t="s">
@@ -6531,46 +6554,46 @@
       <c r="F5" s="111"/>
     </row>
     <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="79" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F6" s="111"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="42" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D7" s="44" t="str">
         <f>CSA!D8</f>
         <v>All</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F7" s="112"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="42" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
@@ -6582,26 +6605,26 @@
       <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F9" s="113"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="167"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>42</v>
@@ -6610,14 +6633,14 @@
         <v>14</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>35</v>
@@ -6631,12 +6654,12 @@
       <c r="F11" s="113"/>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
@@ -6648,7 +6671,7 @@
       <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="191" t="s">
         <v>213</v>
       </c>
       <c r="B13" s="130" t="s">
@@ -6658,17 +6681,17 @@
         <v>36</v>
       </c>
       <c r="D13" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="133" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="133" t="s">
-        <v>314</v>
-      </c>
       <c r="F13" s="156" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="179"/>
+      <c r="A14" s="191"/>
       <c r="B14" s="53" t="s">
         <v>52</v>
       </c>
@@ -6681,12 +6704,12 @@
       <c r="E14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="181" t="s">
-        <v>289</v>
+      <c r="F14" s="193" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="51" t="s">
         <v>144</v>
       </c>
@@ -6697,12 +6720,12 @@
         <v>143</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>372</v>
-      </c>
-      <c r="F15" s="182"/>
+        <v>370</v>
+      </c>
+      <c r="F15" s="194"/>
     </row>
     <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179"/>
+      <c r="A16" s="191"/>
       <c r="B16" s="53" t="s">
         <v>145</v>
       </c>
@@ -6715,10 +6738,10 @@
       <c r="E16" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="194"/>
     </row>
     <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="179"/>
+      <c r="A17" s="191"/>
       <c r="B17" s="53" t="s">
         <v>165</v>
       </c>
@@ -6731,10 +6754,10 @@
       <c r="E17" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="194"/>
     </row>
     <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179"/>
+      <c r="A18" s="191"/>
       <c r="B18" s="53" t="s">
         <v>166</v>
       </c>
@@ -6747,10 +6770,10 @@
       <c r="E18" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="194"/>
     </row>
     <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="180"/>
+      <c r="A19" s="192"/>
       <c r="B19" s="55" t="s">
         <v>167</v>
       </c>
@@ -6763,35 +6786,35 @@
       <c r="E19" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="183"/>
+      <c r="F19" s="195"/>
     </row>
     <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173" t="s">
-        <v>363</v>
+      <c r="A20" s="183" t="s">
+        <v>427</v>
       </c>
       <c r="B20" s="126" t="s">
         <v>168</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D20" s="126" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="127" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="176" t="s">
-        <v>413</v>
+        <v>388</v>
+      </c>
+      <c r="F20" s="186" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="129" t="s">
         <v>254</v>
       </c>
       <c r="C21" s="128" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>44</v>
@@ -6799,64 +6822,64 @@
       <c r="E21" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="177"/>
+      <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="174"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="129" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22" s="128" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D22" s="129">
         <f>D14</f>
         <v>0.01</v>
       </c>
       <c r="E22" s="128" t="s">
-        <v>391</v>
-      </c>
-      <c r="F22" s="177"/>
+        <v>389</v>
+      </c>
+      <c r="F22" s="189"/>
     </row>
     <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="174"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="129" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D23" s="122">
         <v>0.05</v>
       </c>
       <c r="E23" s="123" t="s">
-        <v>392</v>
-      </c>
-      <c r="F23" s="177"/>
+        <v>390</v>
+      </c>
+      <c r="F23" s="189"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="129" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D24" s="129">
         <v>10</v>
       </c>
       <c r="E24" s="128" t="s">
-        <v>421</v>
-      </c>
-      <c r="F24" s="177"/>
+        <v>419</v>
+      </c>
+      <c r="F24" s="189"/>
     </row>
     <row r="25" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" s="122" t="b">
         <v>1</v>
@@ -6864,12 +6887,12 @@
       <c r="E25" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="177"/>
+      <c r="F25" s="189"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="175"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="124" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C26" s="125" t="s">
         <v>258</v>
@@ -6880,7 +6903,7 @@
       <c r="E26" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="178"/>
+      <c r="F26" s="190"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -6906,8 +6929,8 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6938,12 +6961,12 @@
         <v>4</v>
       </c>
       <c r="F1" s="106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
-        <v>373</v>
+      <c r="A2" s="173" t="s">
+        <v>371</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>17</v>
@@ -6955,28 +6978,28 @@
         <v>15</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F2" s="138"/>
     </row>
     <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="136" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="136" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="165"/>
+      <c r="A4" s="175"/>
       <c r="B4" s="89" t="s">
         <v>19</v>
       </c>
@@ -6993,7 +7016,7 @@
       <c r="F4" s="139"/>
     </row>
     <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="79" t="s">
@@ -7010,46 +7033,46 @@
       <c r="F5" s="111"/>
     </row>
     <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="79" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D6" s="44" t="str">
         <f>CSA!D7</f>
         <v>NA</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F6" s="111"/>
     </row>
     <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="167"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D7" s="44" t="str">
         <f>CSA!D8</f>
         <v>All</v>
       </c>
       <c r="E7" s="101" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F7" s="112"/>
     </row>
     <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D8" s="44" t="str">
         <f>CSA!D9</f>
@@ -7061,26 +7084,26 @@
       <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="167"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D9" s="44" t="str">
         <f>CSA!D10</f>
         <v>/peak_alignment</v>
       </c>
       <c r="E9" s="101" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F9" s="153"/>
     </row>
     <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="167"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>42</v>
@@ -7089,17 +7112,17 @@
         <v>14</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F10" s="153"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="167"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>44</v>
@@ -7110,12 +7133,12 @@
       <c r="F11" s="153"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="168"/>
+      <c r="A12" s="178"/>
       <c r="B12" s="48" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D12" s="50" t="str">
         <f>CSA!D12</f>
@@ -7127,7 +7150,7 @@
       <c r="F12" s="154"/>
     </row>
     <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="179" t="s">
         <v>216</v>
       </c>
       <c r="B13" s="132" t="s">
@@ -7137,22 +7160,22 @@
         <v>36</v>
       </c>
       <c r="D13" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="134" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="134" t="s">
-        <v>314</v>
-      </c>
       <c r="F13" s="155" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="38" t="s">
         <v>255</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D14" s="140">
         <v>1000</v>
@@ -7160,14 +7183,14 @@
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="184" t="s">
-        <v>418</v>
+      <c r="F14" s="196" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
@@ -7178,12 +7201,12 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="171"/>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
@@ -7194,10 +7217,10 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="171"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="66" t="s">
         <v>37</v>
       </c>
@@ -7210,15 +7233,15 @@
       <c r="E17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="171"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D18" s="66">
         <v>50</v>
@@ -7226,10 +7249,10 @@
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="171"/>
+      <c r="F18" s="181"/>
     </row>
     <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="38" t="s">
         <v>149</v>
       </c>
@@ -7242,10 +7265,10 @@
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="171"/>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="169"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="38" t="s">
         <v>155</v>
       </c>
@@ -7258,10 +7281,10 @@
       <c r="E20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="171"/>
+      <c r="F20" s="181"/>
     </row>
     <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="170"/>
+      <c r="A21" s="180"/>
       <c r="B21" s="68" t="s">
         <v>156</v>
       </c>
@@ -7274,35 +7297,35 @@
       <c r="E21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="172"/>
+      <c r="F21" s="182"/>
     </row>
     <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173" t="s">
-        <v>363</v>
+      <c r="A22" s="183" t="s">
+        <v>427</v>
       </c>
       <c r="B22" s="126" t="s">
         <v>215</v>
       </c>
       <c r="C22" s="127" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D22" s="126" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="127" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22" s="176" t="s">
-        <v>413</v>
+        <v>393</v>
+      </c>
+      <c r="F22" s="186" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="174"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="129" t="s">
         <v>256</v>
       </c>
       <c r="C23" s="128" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>44</v>
@@ -7310,64 +7333,64 @@
       <c r="E23" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="177"/>
+      <c r="F23" s="189"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="129" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D24" s="129">
         <f>D17</f>
         <v>0.01</v>
       </c>
       <c r="E24" s="128" t="s">
-        <v>396</v>
-      </c>
-      <c r="F24" s="177"/>
+        <v>394</v>
+      </c>
+      <c r="F24" s="189"/>
     </row>
     <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C25" s="128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D25" s="122">
         <v>0.05</v>
       </c>
       <c r="E25" s="123" t="s">
-        <v>397</v>
-      </c>
-      <c r="F25" s="177"/>
+        <v>395</v>
+      </c>
+      <c r="F25" s="189"/>
     </row>
     <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="129" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D26" s="129">
         <v>10</v>
       </c>
       <c r="E26" s="128" t="s">
-        <v>420</v>
-      </c>
-      <c r="F26" s="177"/>
+        <v>418</v>
+      </c>
+      <c r="F26" s="189"/>
     </row>
     <row r="27" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="129" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C27" s="128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D27" s="122" t="b">
         <v>1</v>
@@ -7375,12 +7398,12 @@
       <c r="E27" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="177"/>
+      <c r="F27" s="189"/>
     </row>
     <row r="28" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="175"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="124" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C28" s="125" t="s">
         <v>257</v>
@@ -7391,7 +7414,7 @@
       <c r="E28" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="178"/>
+      <c r="F28" s="190"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -7448,14 +7471,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="165" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="148" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="149" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D2" s="150" t="s">
         <v>136</v>
@@ -7463,7 +7486,7 @@
       <c r="E2" s="151"/>
     </row>
     <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="13" t="s">
         <v>105</v>
       </c>
@@ -7474,41 +7497,41 @@
         <v>14</v>
       </c>
       <c r="E3" s="152" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159"/>
+      <c r="A4" s="166"/>
       <c r="B4" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C4" s="152" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E4" s="152" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="160"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D5" s="77" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="197" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -7526,7 +7549,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
+      <c r="A7" s="198"/>
       <c r="B7" s="22" t="s">
         <v>130</v>
       </c>
@@ -7542,7 +7565,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
+      <c r="A8" s="198"/>
       <c r="B8" s="22" t="s">
         <v>141</v>
       </c>
@@ -7558,9 +7581,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="145" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C9" s="146" t="s">
         <v>171</v>
@@ -7620,11 +7643,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="110" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="200" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="34" t="s">
@@ -7640,12 +7663,12 @@
       <c r="E2" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="190" t="s">
-        <v>419</v>
+      <c r="F2" s="202" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
       </c>
@@ -7653,33 +7676,33 @@
         <v>36</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="108" t="s">
         <v>313</v>
       </c>
-      <c r="E3" s="108" t="s">
-        <v>314</v>
-      </c>
-      <c r="F3" s="189"/>
+      <c r="F3" s="201"/>
     </row>
     <row r="4" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="169"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>237</v>
       </c>
       <c r="E4" s="109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F4" s="121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="169"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="18" t="s">
         <v>111</v>
       </c>
@@ -7690,12 +7713,12 @@
         <v>237</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F5" s="118"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="169"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="18" t="s">
         <v>112</v>
       </c>
@@ -7711,23 +7734,23 @@
       <c r="F6" s="118"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169"/>
+      <c r="A7" s="179"/>
       <c r="B7" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="18">
         <v>2</v>
       </c>
       <c r="E7" s="109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F7" s="118"/>
     </row>
     <row r="8" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="169"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="18" t="s">
         <v>114</v>
       </c>
@@ -7740,12 +7763,12 @@
       <c r="E8" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="184" t="s">
-        <v>310</v>
+      <c r="F8" s="196" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="18" t="s">
         <v>115</v>
       </c>
@@ -7756,17 +7779,17 @@
         <v>20</v>
       </c>
       <c r="E9" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="F9" s="171"/>
+        <v>286</v>
+      </c>
+      <c r="F9" s="181"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="169"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D10" s="18">
         <v>50</v>
@@ -7774,31 +7797,31 @@
       <c r="E10" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="171"/>
+      <c r="F10" s="181"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" s="18">
         <v>1</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="171"/>
+        <v>301</v>
+      </c>
+      <c r="F11" s="181"/>
     </row>
     <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="169"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D12" s="18">
         <v>0.01</v>
@@ -7806,10 +7829,10 @@
       <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="171"/>
+      <c r="F12" s="181"/>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="169"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="4" t="s">
         <v>119</v>
       </c>
@@ -7822,15 +7845,15 @@
       <c r="E13" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="171"/>
+      <c r="F13" s="181"/>
     </row>
     <row r="14" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="169"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D14" s="18">
         <v>0</v>
@@ -7838,15 +7861,15 @@
       <c r="E14" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="171"/>
+      <c r="F14" s="181"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="169"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D15" s="18">
         <v>2</v>
@@ -7854,10 +7877,10 @@
       <c r="E15" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="171"/>
+      <c r="F15" s="181"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="4" t="s">
         <v>153</v>
       </c>
@@ -7870,10 +7893,10 @@
       <c r="E16" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="171"/>
+      <c r="F16" s="181"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="169"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="4" t="s">
         <v>154</v>
       </c>
@@ -7886,15 +7909,15 @@
       <c r="E17" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="171"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="169"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D18" s="18">
         <v>5</v>
@@ -7902,28 +7925,28 @@
       <c r="E18" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="189"/>
+      <c r="F18" s="201"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="169"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="117" t="s">
         <v>238</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" s="66">
         <v>0</v>
       </c>
       <c r="E19" s="108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F19" s="119"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="170"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>50</v>
@@ -7959,7 +7982,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7968,7 +7991,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="67.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7989,14 +8012,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="68.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="203" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C2" s="135" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D2" s="29" t="str">
         <f>DIA!D9</f>
@@ -8005,7 +8028,7 @@
       <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="27" t="s">
         <v>122</v>
       </c>
@@ -8021,7 +8044,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="192"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="58" t="s">
         <v>123</v>
       </c>
@@ -8036,7 +8059,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="58" t="s">
         <v>124</v>
       </c>
@@ -8051,7 +8074,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="58" t="s">
         <v>125</v>
       </c>
@@ -8062,11 +8085,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="61" t="s">
         <v>126</v>
       </c>
@@ -8080,23 +8103,23 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
+    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="204"/>
       <c r="B8" s="61" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>261</v>
+        <v>428</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>281</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="61" t="s">
         <v>128</v>
       </c>
@@ -8111,7 +8134,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="193"/>
+      <c r="A10" s="205"/>
       <c r="B10" s="31" t="s">
         <v>129</v>
       </c>
@@ -8169,7 +8192,7 @@
         <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8215,7 +8238,7 @@
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8274,10 +8297,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" t="s">
         <v>284</v>
-      </c>
-      <c r="C15" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -8504,7 +8527,7 @@
         <v>59</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">

--- a/CSA_parameters.xlsx
+++ b/CSA_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="8" r:id="rId1"/>
@@ -5538,22 +5538,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19"/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="72.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="70.42578125" customWidth="1"/>
+    <col min="5" max="5" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="164" t="s">
         <v>214</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="164"/>
       <c r="B3" s="71" t="s">
         <v>198</v>
@@ -5602,7 +5602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="164"/>
       <c r="B4" s="71" t="s">
         <v>199</v>
@@ -5617,7 +5617,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="164"/>
       <c r="B5" s="71" t="s">
         <v>200</v>
@@ -5632,7 +5632,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="164"/>
       <c r="B6" s="71" t="s">
         <v>201</v>
@@ -5647,7 +5647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="164"/>
       <c r="B7" s="78" t="s">
         <v>202</v>
@@ -5662,7 +5662,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="165" t="s">
         <v>99</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="166"/>
       <c r="B9" s="13" t="s">
         <v>204</v>
@@ -5696,7 +5696,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="167"/>
       <c r="B10" s="11" t="s">
         <v>205</v>
@@ -5713,23 +5713,23 @@
         <v>Do not fill when any of PARAM0001-PARAM0003 are selected "YES"</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17"/>
     </row>
   </sheetData>
@@ -5752,18 +5752,18 @@
       <selection pane="bottomLeft" activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="75.140625" style="57" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="77.42578125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="37.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="77.44140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="173" t="s">
         <v>368</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="F2" s="157"/>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174"/>
       <c r="B3" s="142" t="s">
         <v>175</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F3" s="158"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="174"/>
       <c r="B4" s="142" t="s">
         <v>176</v>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="F4" s="158"/>
     </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="175"/>
       <c r="B5" s="89" t="s">
         <v>177</v>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="F5" s="159"/>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="176" t="s">
         <v>27</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="160"/>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="177"/>
       <c r="B7" s="69" t="s">
         <v>179</v>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F7" s="160"/>
     </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="177"/>
       <c r="B8" s="44" t="s">
         <v>180</v>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="F8" s="161"/>
     </row>
-    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="177"/>
       <c r="B9" s="44" t="s">
         <v>181</v>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="F9" s="161"/>
     </row>
-    <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="177"/>
       <c r="B10" s="44" t="s">
         <v>207</v>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="F10" s="161"/>
     </row>
-    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="177"/>
       <c r="B11" s="44" t="s">
         <v>188</v>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="F11" s="162"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="178"/>
       <c r="B12" s="50" t="s">
         <v>302</v>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="F12" s="163"/>
     </row>
-    <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="179" t="s">
         <v>319</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="179"/>
       <c r="B14" s="18" t="s">
         <v>190</v>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="F14" s="181"/>
     </row>
-    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
         <v>208</v>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="F15" s="181"/>
     </row>
-    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="179"/>
       <c r="B16" s="18" t="s">
         <v>191</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="F16" s="181"/>
     </row>
-    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="179"/>
       <c r="B17" s="66" t="s">
         <v>192</v>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="F17" s="181"/>
     </row>
-    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="179"/>
       <c r="B18" s="66" t="s">
         <v>209</v>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="F18" s="181"/>
     </row>
-    <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="179"/>
       <c r="B19" s="38" t="s">
         <v>210</v>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F19" s="181"/>
     </row>
-    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="179"/>
       <c r="B20" s="38" t="s">
         <v>193</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F20" s="181"/>
     </row>
-    <row r="21" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="179"/>
       <c r="B21" s="38" t="s">
         <v>218</v>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F21" s="181"/>
     </row>
-    <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="179"/>
       <c r="B22" s="38" t="s">
         <v>219</v>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="F22" s="181"/>
     </row>
-    <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="180"/>
       <c r="B23" s="68" t="s">
         <v>220</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="F23" s="182"/>
     </row>
-    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="183" t="s">
         <v>427</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
         <v>222</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="F25" s="187"/>
     </row>
-    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="184"/>
       <c r="B26" s="129" t="s">
         <v>223</v>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="F26" s="187"/>
     </row>
-    <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="184"/>
       <c r="B27" s="129" t="s">
         <v>224</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="F27" s="187"/>
     </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="184"/>
       <c r="B28" s="129" t="s">
         <v>227</v>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="F28" s="187"/>
     </row>
-    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="184"/>
       <c r="B29" s="129" t="s">
         <v>231</v>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="F29" s="187"/>
     </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="185"/>
       <c r="B30" s="124" t="s">
         <v>232</v>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="F30" s="188"/>
     </row>
-    <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="168" t="s">
         <v>225</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="168"/>
       <c r="B32" s="82" t="s">
         <v>240</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="F32" s="171"/>
     </row>
-    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="168"/>
       <c r="B33" s="84" t="s">
         <v>244</v>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="F33" s="171"/>
     </row>
-    <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="168"/>
       <c r="B34" s="84" t="s">
         <v>252</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="F34" s="171"/>
     </row>
-    <row r="35" spans="1:6" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="168"/>
       <c r="B35" s="84" t="s">
         <v>253</v>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="F35" s="171"/>
     </row>
-    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="168"/>
       <c r="B36" s="84" t="s">
         <v>314</v>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F36" s="171"/>
     </row>
-    <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="168"/>
       <c r="B37" s="84" t="s">
         <v>315</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="F37" s="171"/>
     </row>
-    <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="168"/>
       <c r="B38" s="84" t="s">
         <v>320</v>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="F38" s="171"/>
     </row>
-    <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="168"/>
       <c r="B39" s="96" t="s">
         <v>359</v>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="F39" s="171"/>
     </row>
-    <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="169"/>
       <c r="B40" s="93" t="s">
         <v>360</v>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="F40" s="172"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A31:A40"/>
@@ -6454,18 +6454,18 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="45" customWidth="1"/>
     <col min="3" max="3" width="76" style="57" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="45" customWidth="1"/>
     <col min="5" max="5" width="78" style="45" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="45"/>
+    <col min="6" max="6" width="41.5546875" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="173" t="s">
         <v>369</v>
       </c>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="F2" s="138"/>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174"/>
       <c r="B3" s="136" t="s">
         <v>29</v>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="F3" s="144"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="175"/>
       <c r="B4" s="89" t="s">
         <v>30</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="F4" s="139"/>
     </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="E5" s="100"/>
       <c r="F5" s="111"/>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="177"/>
       <c r="B6" s="79" t="s">
         <v>32</v>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F6" s="111"/>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="177"/>
       <c r="B7" s="42" t="s">
         <v>55</v>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="F7" s="112"/>
     </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="177"/>
       <c r="B8" s="42" t="s">
         <v>33</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="F8" s="112"/>
     </row>
-    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="177"/>
       <c r="B9" s="42" t="s">
         <v>26</v>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="F9" s="113"/>
     </row>
-    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="177"/>
       <c r="B10" s="42" t="s">
         <v>303</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F10" s="113"/>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="177"/>
       <c r="B11" s="42" t="s">
         <v>352</v>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="F11" s="113"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="178"/>
       <c r="B12" s="48" t="s">
         <v>34</v>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="F12" s="114"/>
     </row>
-    <row r="13" spans="1:6" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="191" t="s">
         <v>213</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="191"/>
       <c r="B14" s="53" t="s">
         <v>52</v>
@@ -6708,7 +6708,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="191"/>
       <c r="B15" s="51" t="s">
         <v>144</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="F15" s="194"/>
     </row>
-    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="191"/>
       <c r="B16" s="53" t="s">
         <v>145</v>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="F16" s="194"/>
     </row>
-    <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="191"/>
       <c r="B17" s="53" t="s">
         <v>165</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F17" s="194"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="191"/>
       <c r="B18" s="53" t="s">
         <v>166</v>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="F18" s="194"/>
     </row>
-    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="192"/>
       <c r="B19" s="55" t="s">
         <v>167</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="F19" s="195"/>
     </row>
-    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="183" t="s">
         <v>427</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="184"/>
       <c r="B21" s="129" t="s">
         <v>254</v>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="F21" s="189"/>
     </row>
-    <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="184"/>
       <c r="B22" s="129" t="s">
         <v>321</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="F22" s="189"/>
     </row>
-    <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184"/>
       <c r="B23" s="129" t="s">
         <v>346</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="F23" s="189"/>
     </row>
-    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="184"/>
       <c r="B24" s="129" t="s">
         <v>364</v>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="F24" s="189"/>
     </row>
-    <row r="25" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
         <v>365</v>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="F25" s="189"/>
     </row>
-    <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="185"/>
       <c r="B26" s="124" t="s">
         <v>366</v>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="F26" s="190"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A5:A12"/>
@@ -6933,18 +6933,18 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="57" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="45" customWidth="1"/>
     <col min="5" max="5" width="78" style="45" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="45"/>
+    <col min="6" max="6" width="41.5546875" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="173" t="s">
         <v>371</v>
       </c>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="F2" s="138"/>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="174"/>
       <c r="B3" s="136" t="s">
         <v>18</v>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="F3" s="144"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="175"/>
       <c r="B4" s="89" t="s">
         <v>19</v>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="F4" s="139"/>
     </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
@@ -7032,7 +7032,7 @@
       <c r="E5" s="100"/>
       <c r="F5" s="111"/>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="177"/>
       <c r="B6" s="79" t="s">
         <v>21</v>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="F6" s="111"/>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="177"/>
       <c r="B7" s="42" t="s">
         <v>22</v>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="F7" s="112"/>
     </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="177"/>
       <c r="B8" s="42" t="s">
         <v>23</v>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="F8" s="112"/>
     </row>
-    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="177"/>
       <c r="B9" s="42" t="s">
         <v>24</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F9" s="153"/>
     </row>
-    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="177"/>
       <c r="B10" s="42" t="s">
         <v>304</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F10" s="153"/>
     </row>
-    <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="177"/>
       <c r="B11" s="42" t="s">
         <v>347</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="F11" s="153"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="178"/>
       <c r="B12" s="48" t="s">
         <v>372</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="F12" s="154"/>
     </row>
-    <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="179" t="s">
         <v>216</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="179"/>
       <c r="B14" s="38" t="s">
         <v>255</v>
@@ -7187,7 +7187,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
         <v>326</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="F15" s="181"/>
     </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="179"/>
       <c r="B16" s="38" t="s">
         <v>305</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="F16" s="181"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="179"/>
       <c r="B17" s="66" t="s">
         <v>37</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="F17" s="181"/>
     </row>
-    <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="179"/>
       <c r="B18" s="66" t="s">
         <v>38</v>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="F18" s="181"/>
     </row>
-    <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="179"/>
       <c r="B19" s="38" t="s">
         <v>149</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="F19" s="181"/>
     </row>
-    <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="179"/>
       <c r="B20" s="38" t="s">
         <v>155</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="F20" s="181"/>
     </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="180"/>
       <c r="B21" s="68" t="s">
         <v>156</v>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F21" s="182"/>
     </row>
-    <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="37.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="183" t="s">
         <v>427</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="184"/>
       <c r="B23" s="129" t="s">
         <v>256</v>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="F23" s="189"/>
     </row>
-    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="184"/>
       <c r="B24" s="129" t="s">
         <v>322</v>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="F24" s="189"/>
     </row>
-    <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
         <v>353</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="F25" s="189"/>
     </row>
-    <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="184"/>
       <c r="B26" s="129" t="s">
         <v>373</v>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="F26" s="189"/>
     </row>
-    <row r="27" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A27" s="184"/>
       <c r="B27" s="129" t="s">
         <v>374</v>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="F27" s="189"/>
     </row>
-    <row r="28" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="185"/>
       <c r="B28" s="124" t="s">
         <v>375</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="F28" s="190"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
@@ -7439,21 +7439,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" customWidth="1"/>
+    <col min="5" max="5" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="165" t="s">
         <v>27</v>
       </c>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="E2" s="151"/>
     </row>
-    <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="166"/>
       <c r="B3" s="13" t="s">
         <v>105</v>
@@ -7500,7 +7500,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="166"/>
       <c r="B4" s="13" t="s">
         <v>106</v>
@@ -7515,7 +7515,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="167"/>
       <c r="B5" s="11" t="s">
         <v>398</v>
@@ -7530,7 +7530,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="197" t="s">
         <v>133</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="198"/>
       <c r="B7" s="22" t="s">
         <v>130</v>
@@ -7564,7 +7564,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="198"/>
       <c r="B8" s="22" t="s">
         <v>141</v>
@@ -7580,7 +7580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="199"/>
       <c r="B9" s="145" t="s">
         <v>401</v>
@@ -7596,7 +7596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
@@ -7616,17 +7616,17 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="74" style="2" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="200" t="s">
         <v>139</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="179"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="F3" s="201"/>
     </row>
-    <row r="4" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="179"/>
       <c r="B4" s="4" t="s">
         <v>110</v>
@@ -7701,7 +7701,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="179"/>
       <c r="B5" s="18" t="s">
         <v>111</v>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="F5" s="118"/>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="179"/>
       <c r="B6" s="18" t="s">
         <v>112</v>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="F6" s="118"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="179"/>
       <c r="B7" s="18" t="s">
         <v>113</v>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F7" s="118"/>
     </row>
-    <row r="8" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="179"/>
       <c r="B8" s="18" t="s">
         <v>114</v>
@@ -7767,7 +7767,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="179"/>
       <c r="B9" s="18" t="s">
         <v>115</v>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="F9" s="181"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="179"/>
       <c r="B10" s="18" t="s">
         <v>116</v>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="F10" s="181"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="179"/>
       <c r="B11" s="18" t="s">
         <v>117</v>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="F11" s="181"/>
     </row>
-    <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="179"/>
       <c r="B12" s="4" t="s">
         <v>118</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="F12" s="181"/>
     </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="179"/>
       <c r="B13" s="4" t="s">
         <v>119</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="F13" s="181"/>
     </row>
-    <row r="14" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="179"/>
       <c r="B14" s="4" t="s">
         <v>120</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="F14" s="181"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="179"/>
       <c r="B15" s="4" t="s">
         <v>148</v>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="F15" s="181"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="179"/>
       <c r="B16" s="4" t="s">
         <v>153</v>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="F16" s="181"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="179"/>
       <c r="B17" s="4" t="s">
         <v>154</v>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F17" s="181"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="179"/>
       <c r="B18" s="4" t="s">
         <v>206</v>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="F18" s="201"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="179"/>
       <c r="B19" s="117" t="s">
         <v>238</v>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="F19" s="119"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="180"/>
       <c r="B20" s="115" t="s">
         <v>317</v>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="F20" s="120"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A20"/>
@@ -7982,19 +7982,19 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="63.5703125" customWidth="1"/>
+    <col min="5" max="5" width="63.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="68.400000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="203" t="s">
         <v>49</v>
       </c>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="204"/>
       <c r="B3" s="27" t="s">
         <v>122</v>
@@ -8043,7 +8043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="204"/>
       <c r="B4" s="58" t="s">
         <v>123</v>
@@ -8058,7 +8058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="204"/>
       <c r="B5" s="58" t="s">
         <v>124</v>
@@ -8073,7 +8073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="204"/>
       <c r="B6" s="58" t="s">
         <v>125</v>
@@ -8088,7 +8088,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="204"/>
       <c r="B7" s="61" t="s">
         <v>126</v>
@@ -8103,7 +8103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="204"/>
       <c r="B8" s="61" t="s">
         <v>127</v>
@@ -8118,7 +8118,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="204"/>
       <c r="B9" s="61" t="s">
         <v>128</v>
@@ -8133,7 +8133,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="205"/>
       <c r="B10" s="31" t="s">
         <v>129</v>
@@ -8148,7 +8148,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A10"/>
@@ -8166,13 +8166,13 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="66.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="64" t="s">
         <v>276</v>
       </c>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="H2" s="64"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="65"/>
     </row>
   </sheetData>

--- a/CSA_parameters.xlsx
+++ b/CSA_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23160" windowHeight="9300" tabRatio="621" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="8" r:id="rId1"/>
@@ -5541,19 +5541,19 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C19" sqref="C19"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="72.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="164" t="s">
         <v>214</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="164"/>
       <c r="B3" s="71" t="s">
         <v>198</v>
@@ -5602,7 +5602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="164"/>
       <c r="B4" s="71" t="s">
         <v>199</v>
@@ -5617,7 +5617,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="164"/>
       <c r="B5" s="71" t="s">
         <v>200</v>
@@ -5632,7 +5632,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="164"/>
       <c r="B6" s="71" t="s">
         <v>201</v>
@@ -5647,7 +5647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="164"/>
       <c r="B7" s="78" t="s">
         <v>202</v>
@@ -5662,7 +5662,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="165" t="s">
         <v>99</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="166"/>
       <c r="B9" s="13" t="s">
         <v>204</v>
@@ -5696,7 +5696,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="167"/>
       <c r="B10" s="11" t="s">
         <v>205</v>
@@ -5713,23 +5713,23 @@
         <v>Do not fill when any of PARAM0001-PARAM0003 are selected "YES"</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17"/>
     </row>
   </sheetData>
@@ -5748,22 +5748,22 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="75.109375" style="57" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="77.44140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="45"/>
+    <col min="1" max="1" width="37.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.140625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="77.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
         <v>368</v>
       </c>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="F2" s="157"/>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174"/>
       <c r="B3" s="142" t="s">
         <v>175</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F3" s="158"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="174"/>
       <c r="B4" s="142" t="s">
         <v>176</v>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="F4" s="158"/>
     </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="175"/>
       <c r="B5" s="89" t="s">
         <v>177</v>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="F5" s="159"/>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="176" t="s">
         <v>27</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="160"/>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="177"/>
       <c r="B7" s="69" t="s">
         <v>179</v>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F7" s="160"/>
     </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="177"/>
       <c r="B8" s="44" t="s">
         <v>180</v>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="F8" s="161"/>
     </row>
-    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="177"/>
       <c r="B9" s="44" t="s">
         <v>181</v>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="F9" s="161"/>
     </row>
-    <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="177"/>
       <c r="B10" s="44" t="s">
         <v>207</v>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="F10" s="161"/>
     </row>
-    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="177"/>
       <c r="B11" s="44" t="s">
         <v>188</v>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="F11" s="162"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="178"/>
       <c r="B12" s="50" t="s">
         <v>302</v>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="F12" s="163"/>
     </row>
-    <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="73.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179" t="s">
         <v>319</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="18" t="s">
         <v>190</v>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="F14" s="181"/>
     </row>
-    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
         <v>208</v>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="F15" s="181"/>
     </row>
-    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="18" t="s">
         <v>191</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="F16" s="181"/>
     </row>
-    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="66" t="s">
         <v>192</v>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="F17" s="181"/>
     </row>
-    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="66" t="s">
         <v>209</v>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="F18" s="181"/>
     </row>
-    <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="38" t="s">
         <v>210</v>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F19" s="181"/>
     </row>
-    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="179"/>
       <c r="B20" s="38" t="s">
         <v>193</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F20" s="181"/>
     </row>
-    <row r="21" spans="1:6" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="179"/>
       <c r="B21" s="38" t="s">
         <v>218</v>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F21" s="181"/>
     </row>
-    <row r="22" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="179"/>
       <c r="B22" s="38" t="s">
         <v>219</v>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="F22" s="181"/>
     </row>
-    <row r="23" spans="1:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="180"/>
       <c r="B23" s="68" t="s">
         <v>220</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="F23" s="182"/>
     </row>
-    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="183" t="s">
         <v>427</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
         <v>222</v>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="F25" s="187"/>
     </row>
-    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="184"/>
       <c r="B26" s="129" t="s">
         <v>223</v>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="F26" s="187"/>
     </row>
-    <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="184"/>
       <c r="B27" s="129" t="s">
         <v>224</v>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="F27" s="187"/>
     </row>
-    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="184"/>
       <c r="B28" s="129" t="s">
         <v>227</v>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="F28" s="187"/>
     </row>
-    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="184"/>
       <c r="B29" s="129" t="s">
         <v>231</v>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="F29" s="187"/>
     </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="185"/>
       <c r="B30" s="124" t="s">
         <v>232</v>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="F30" s="188"/>
     </row>
-    <row r="31" spans="1:6" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="23.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="168" t="s">
         <v>225</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="57" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="168"/>
       <c r="B32" s="82" t="s">
         <v>240</v>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="F32" s="171"/>
     </row>
-    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="168"/>
       <c r="B33" s="84" t="s">
         <v>244</v>
@@ -6310,7 +6310,7 @@
       </c>
       <c r="F33" s="171"/>
     </row>
-    <row r="34" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="168"/>
       <c r="B34" s="84" t="s">
         <v>252</v>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="F34" s="171"/>
     </row>
-    <row r="35" spans="1:6" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="168"/>
       <c r="B35" s="84" t="s">
         <v>253</v>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="F35" s="171"/>
     </row>
-    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="168"/>
       <c r="B36" s="84" t="s">
         <v>314</v>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F36" s="171"/>
     </row>
-    <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="168"/>
       <c r="B37" s="84" t="s">
         <v>315</v>
@@ -6375,7 +6375,7 @@
       </c>
       <c r="F37" s="171"/>
     </row>
-    <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="168"/>
       <c r="B38" s="84" t="s">
         <v>320</v>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="F38" s="171"/>
     </row>
-    <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="168"/>
       <c r="B39" s="96" t="s">
         <v>359</v>
@@ -6407,7 +6407,7 @@
       </c>
       <c r="F39" s="171"/>
     </row>
-    <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="169"/>
       <c r="B40" s="93" t="s">
         <v>360</v>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="F40" s="172"/>
     </row>
-    <row r="41" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A31:A40"/>
@@ -6450,22 +6450,22 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
     <col min="3" max="3" width="76" style="57" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
     <col min="5" max="5" width="78" style="45" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="45"/>
+    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
         <v>369</v>
       </c>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="F2" s="138"/>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174"/>
       <c r="B3" s="136" t="s">
         <v>29</v>
@@ -6519,7 +6519,7 @@
       </c>
       <c r="F3" s="144"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="175"/>
       <c r="B4" s="89" t="s">
         <v>30</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="F4" s="139"/>
     </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
@@ -6553,7 +6553,7 @@
       <c r="E5" s="100"/>
       <c r="F5" s="111"/>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="177"/>
       <c r="B6" s="79" t="s">
         <v>32</v>
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F6" s="111"/>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="177"/>
       <c r="B7" s="42" t="s">
         <v>55</v>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="F7" s="112"/>
     </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="177"/>
       <c r="B8" s="42" t="s">
         <v>33</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="F8" s="112"/>
     </row>
-    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="177"/>
       <c r="B9" s="42" t="s">
         <v>26</v>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="F9" s="113"/>
     </row>
-    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="177"/>
       <c r="B10" s="42" t="s">
         <v>303</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F10" s="113"/>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="177"/>
       <c r="B11" s="42" t="s">
         <v>352</v>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="F11" s="113"/>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="178"/>
       <c r="B12" s="48" t="s">
         <v>34</v>
@@ -6670,7 +6670,7 @@
       </c>
       <c r="F12" s="114"/>
     </row>
-    <row r="13" spans="1:6" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="191" t="s">
         <v>213</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="191"/>
       <c r="B14" s="53" t="s">
         <v>52</v>
@@ -6708,7 +6708,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="191"/>
       <c r="B15" s="51" t="s">
         <v>144</v>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="F15" s="194"/>
     </row>
-    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="191"/>
       <c r="B16" s="53" t="s">
         <v>145</v>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="F16" s="194"/>
     </row>
-    <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="191"/>
       <c r="B17" s="53" t="s">
         <v>165</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="F17" s="194"/>
     </row>
-    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="191"/>
       <c r="B18" s="53" t="s">
         <v>166</v>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="F18" s="194"/>
     </row>
-    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="192"/>
       <c r="B19" s="55" t="s">
         <v>167</v>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="F19" s="195"/>
     </row>
-    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="183" t="s">
         <v>427</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="184"/>
       <c r="B21" s="129" t="s">
         <v>254</v>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="F21" s="189"/>
     </row>
-    <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="184"/>
       <c r="B22" s="129" t="s">
         <v>321</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="F22" s="189"/>
     </row>
-    <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="184"/>
       <c r="B23" s="129" t="s">
         <v>346</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="F23" s="189"/>
     </row>
-    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="184"/>
       <c r="B24" s="129" t="s">
         <v>364</v>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="F24" s="189"/>
     </row>
-    <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
         <v>365</v>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="F25" s="189"/>
     </row>
-    <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="185"/>
       <c r="B26" s="124" t="s">
         <v>366</v>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="F26" s="190"/>
     </row>
-    <row r="27" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A5:A12"/>
@@ -6933,18 +6933,18 @@
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" style="45" customWidth="1"/>
     <col min="5" max="5" width="78" style="45" customWidth="1"/>
-    <col min="6" max="6" width="41.5546875" style="45" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="45"/>
+    <col min="6" max="6" width="41.5703125" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="41" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="173" t="s">
         <v>371</v>
       </c>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="F2" s="138"/>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174"/>
       <c r="B3" s="136" t="s">
         <v>18</v>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="F3" s="144"/>
     </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="175"/>
       <c r="B4" s="89" t="s">
         <v>19</v>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="F4" s="139"/>
     </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="41" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="176" t="s">
         <v>27</v>
       </c>
@@ -7032,7 +7032,7 @@
       <c r="E5" s="100"/>
       <c r="F5" s="111"/>
     </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="41" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="177"/>
       <c r="B6" s="79" t="s">
         <v>21</v>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="F6" s="111"/>
     </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="41" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="177"/>
       <c r="B7" s="42" t="s">
         <v>22</v>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="F7" s="112"/>
     </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="41" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="177"/>
       <c r="B8" s="42" t="s">
         <v>23</v>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="F8" s="112"/>
     </row>
-    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="177"/>
       <c r="B9" s="42" t="s">
         <v>24</v>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F9" s="153"/>
     </row>
-    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="177"/>
       <c r="B10" s="42" t="s">
         <v>304</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F10" s="153"/>
     </row>
-    <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="177"/>
       <c r="B11" s="42" t="s">
         <v>347</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="F11" s="153"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="178"/>
       <c r="B12" s="48" t="s">
         <v>372</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="F12" s="154"/>
     </row>
-    <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179" t="s">
         <v>216</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="38" t="s">
         <v>255</v>
@@ -7187,7 +7187,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="18" t="s">
         <v>326</v>
@@ -7203,7 +7203,7 @@
       </c>
       <c r="F15" s="181"/>
     </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="38" t="s">
         <v>305</v>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="F16" s="181"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="66" t="s">
         <v>37</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="F17" s="181"/>
     </row>
-    <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="66" t="s">
         <v>38</v>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="F18" s="181"/>
     </row>
-    <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="38" t="s">
         <v>149</v>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="F19" s="181"/>
     </row>
-    <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="179"/>
       <c r="B20" s="38" t="s">
         <v>155</v>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="F20" s="181"/>
     </row>
-    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="180"/>
       <c r="B21" s="68" t="s">
         <v>156</v>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F21" s="182"/>
     </row>
-    <row r="22" spans="1:6" ht="37.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="37.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="183" t="s">
         <v>427</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="184"/>
       <c r="B23" s="129" t="s">
         <v>256</v>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="F23" s="189"/>
     </row>
-    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="184"/>
       <c r="B24" s="129" t="s">
         <v>322</v>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="F24" s="189"/>
     </row>
-    <row r="25" spans="1:6" ht="46.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A25" s="184"/>
       <c r="B25" s="129" t="s">
         <v>353</v>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="F25" s="189"/>
     </row>
-    <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="184"/>
       <c r="B26" s="129" t="s">
         <v>373</v>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="F26" s="189"/>
     </row>
-    <row r="27" spans="1:6" ht="46.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A27" s="184"/>
       <c r="B27" s="129" t="s">
         <v>374</v>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="F27" s="189"/>
     </row>
-    <row r="28" spans="1:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="185"/>
       <c r="B28" s="124" t="s">
         <v>375</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="F28" s="190"/>
     </row>
-    <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
@@ -7439,21 +7439,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="61.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="165" t="s">
         <v>27</v>
       </c>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="E2" s="151"/>
     </row>
-    <row r="3" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="166"/>
       <c r="B3" s="13" t="s">
         <v>105</v>
@@ -7500,7 +7500,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="166"/>
       <c r="B4" s="13" t="s">
         <v>106</v>
@@ -7515,7 +7515,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="167"/>
       <c r="B5" s="11" t="s">
         <v>398</v>
@@ -7530,7 +7530,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="197" t="s">
         <v>133</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="198"/>
       <c r="B7" s="22" t="s">
         <v>130</v>
@@ -7564,7 +7564,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="198"/>
       <c r="B8" s="22" t="s">
         <v>141</v>
@@ -7580,7 +7580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="199"/>
       <c r="B9" s="145" t="s">
         <v>401</v>
@@ -7596,7 +7596,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
@@ -7613,20 +7613,20 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="74" style="2" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="77.6640625" customWidth="1"/>
-    <col min="6" max="6" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="200" t="s">
         <v>139</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="179"/>
       <c r="B3" s="4" t="s">
         <v>109</v>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="F3" s="201"/>
     </row>
-    <row r="4" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="179"/>
       <c r="B4" s="4" t="s">
         <v>110</v>
@@ -7701,7 +7701,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="179"/>
       <c r="B5" s="18" t="s">
         <v>111</v>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="F5" s="118"/>
     </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="179"/>
       <c r="B6" s="18" t="s">
         <v>112</v>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="F6" s="118"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="179"/>
       <c r="B7" s="18" t="s">
         <v>113</v>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F7" s="118"/>
     </row>
-    <row r="8" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="179"/>
       <c r="B8" s="18" t="s">
         <v>114</v>
@@ -7767,7 +7767,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="179"/>
       <c r="B9" s="18" t="s">
         <v>115</v>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="F9" s="181"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="179"/>
       <c r="B10" s="18" t="s">
         <v>116</v>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="F10" s="181"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="179"/>
       <c r="B11" s="18" t="s">
         <v>117</v>
@@ -7815,7 +7815,7 @@
       </c>
       <c r="F11" s="181"/>
     </row>
-    <row r="12" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="179"/>
       <c r="B12" s="4" t="s">
         <v>118</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="F12" s="181"/>
     </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="179"/>
       <c r="B13" s="4" t="s">
         <v>119</v>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="F13" s="181"/>
     </row>
-    <row r="14" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="179"/>
       <c r="B14" s="4" t="s">
         <v>120</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="F14" s="181"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="179"/>
       <c r="B15" s="4" t="s">
         <v>148</v>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="F15" s="181"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="179"/>
       <c r="B16" s="4" t="s">
         <v>153</v>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="F16" s="181"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="179"/>
       <c r="B17" s="4" t="s">
         <v>154</v>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="F17" s="181"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="179"/>
       <c r="B18" s="4" t="s">
         <v>206</v>
@@ -7927,7 +7927,7 @@
       </c>
       <c r="F18" s="201"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="179"/>
       <c r="B19" s="117" t="s">
         <v>238</v>
@@ -7943,7 +7943,7 @@
       </c>
       <c r="F19" s="119"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="180"/>
       <c r="B20" s="115" t="s">
         <v>317</v>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="F20" s="120"/>
     </row>
-    <row r="21" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A20"/>
@@ -7982,19 +7982,19 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="63.5546875" customWidth="1"/>
+    <col min="5" max="5" width="63.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68.400000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="68.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="203" t="s">
         <v>49</v>
       </c>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="204"/>
       <c r="B3" s="27" t="s">
         <v>122</v>
@@ -8043,7 +8043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="204"/>
       <c r="B4" s="58" t="s">
         <v>123</v>
@@ -8058,7 +8058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="204"/>
       <c r="B5" s="58" t="s">
         <v>124</v>
@@ -8073,7 +8073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="204"/>
       <c r="B6" s="58" t="s">
         <v>125</v>
@@ -8088,7 +8088,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="204"/>
       <c r="B7" s="61" t="s">
         <v>126</v>
@@ -8103,7 +8103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="204"/>
       <c r="B8" s="61" t="s">
         <v>127</v>
@@ -8118,7 +8118,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="204"/>
       <c r="B9" s="61" t="s">
         <v>128</v>
@@ -8133,7 +8133,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="205"/>
       <c r="B10" s="31" t="s">
         <v>129</v>
@@ -8148,7 +8148,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A10"/>
@@ -8162,17 +8162,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="66.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="64" t="s">
         <v>276</v>
       </c>
@@ -8184,7 +8182,7 @@
       </c>
       <c r="H2" s="64"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8195,7 +8193,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8203,7 +8201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8214,7 +8212,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8222,7 +8220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8230,7 +8228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8241,7 +8239,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8249,7 +8247,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8257,7 +8255,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8265,7 +8263,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8273,7 +8271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8281,7 +8279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8292,7 +8290,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8303,7 +8301,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8314,7 +8312,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8336,7 +8334,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8347,7 +8345,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8358,7 +8356,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8369,7 +8367,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8380,7 +8378,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8391,7 +8389,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8402,7 +8400,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8413,7 +8411,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8429,7 +8427,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8451,7 +8449,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8462,7 +8460,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8473,7 +8471,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8481,7 +8479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8489,7 +8487,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8497,7 +8495,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8508,7 +8506,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8519,7 +8517,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8530,7 +8528,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8541,7 +8539,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8552,7 +8550,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8563,7 +8561,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8571,7 +8569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8579,7 +8577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8587,7 +8585,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8595,7 +8593,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8603,7 +8601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8611,7 +8609,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8619,7 +8617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8627,7 +8625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="65"/>
     </row>
   </sheetData>
